--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E17CD-6463-4173-A548-2384D1370E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920C544-2CDE-4D19-A79D-0722E00546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16354" yWindow="7646" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="848">
   <si>
     <t>University</t>
   </si>
@@ -2116,6 +2116,489 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I182083151</t>
+  </si>
+  <si>
+    <t>King Juan Carlos University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I904495901</t>
+  </si>
+  <si>
+    <t>Ruhr University Bochum</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I172901346</t>
+  </si>
+  <si>
+    <t>St Petersburg University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I227306068</t>
+  </si>
+  <si>
+    <t>Ondokuz Mayıs University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I878213199</t>
+  </si>
+  <si>
+    <t>University of Pune</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I196051555</t>
+  </si>
+  <si>
+    <t>Shahid Chamran University of Ahvaz</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I194604659</t>
+  </si>
+  <si>
+    <t>Shiraz University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I47838141</t>
+  </si>
+  <si>
+    <t>Saint Louis University</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I59553526</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I174306211</t>
+  </si>
+  <si>
+    <t>Technion – Israel Institute of Technology</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I61893789</t>
+  </si>
+  <si>
+    <t>TU Bergakademie Freiberg</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4577782</t>
+  </si>
+  <si>
+    <t>Technical University of Berlin</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I31512782</t>
+  </si>
+  <si>
+    <t>TU Darmstadt</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I78650965</t>
+  </si>
+  <si>
+    <t>TU Dresden</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I153267046</t>
+  </si>
+  <si>
+    <t>University of Kaiserslautern</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I98461037</t>
+  </si>
+  <si>
+    <t>Monterrey Institute of Technology and Higher Education</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I91045830</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I162030827</t>
+  </si>
+  <si>
+    <t>Thapar University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I197251160</t>
+  </si>
+  <si>
+    <t>Hebrew University of Jerusalem</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I98677209</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I28407311</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I91136226</t>
+  </si>
+  <si>
+    <t>University of Sheffield</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I74801974</t>
+  </si>
+  <si>
+    <t>University of Tokyo</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I39555362</t>
+  </si>
+  <si>
+    <t>University of Warwick</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I205274468</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I196349391</t>
+  </si>
+  <si>
+    <t>University of Ulm</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I63634437</t>
+  </si>
+  <si>
+    <t>Autonomous University of Madrid</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I52354020</t>
+  </si>
+  <si>
+    <t>University of Almería</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I172787465</t>
+  </si>
+  <si>
+    <t>University of Concepción</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I158438070</t>
+  </si>
+  <si>
+    <t>University of La Laguna</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I180910786</t>
+  </si>
+  <si>
+    <t>University of the Republic</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I36243813</t>
+  </si>
+  <si>
+    <t>National University of Colombia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I874386039</t>
+  </si>
+  <si>
+    <t>National University of La Plata</t>
+  </si>
+  <si>
+    <t>University of Brasília</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I150729083</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I141596103</t>
+  </si>
+  <si>
+    <t>University of Lisbon</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I879563668</t>
+  </si>
+  <si>
+    <t>São Paulo State University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I126158947</t>
+  </si>
+  <si>
+    <t>Federal University of Bahia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I88273585</t>
+  </si>
+  <si>
+    <t>Federal University of São Paulo</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I52418104</t>
+  </si>
+  <si>
+    <t>Federal University of Paraná</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I122140584</t>
+  </si>
+  <si>
+    <t>Federal University of Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I161127581</t>
+  </si>
+  <si>
+    <t>Fluminense Federal University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I103320735</t>
+  </si>
+  <si>
+    <t>Catholic University of the Sacred Heart</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I142910587</t>
+  </si>
+  <si>
+    <t>University of Salento</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I122534668</t>
+  </si>
+  <si>
+    <t>Marche Polytechnic University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I123044942</t>
+  </si>
+  <si>
+    <t>Autonomous University of Barcelona</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I10902133</t>
+  </si>
+  <si>
+    <t>Jaume I University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I9617848</t>
+  </si>
+  <si>
+    <t>Universitat Politècnica de Catalunya</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I60668342</t>
+  </si>
+  <si>
+    <t>University of Regensburg</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I55952717</t>
+  </si>
+  <si>
+    <t>Rovira i Virgili University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I9341345</t>
+  </si>
+  <si>
+    <t>University of Lübeck</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I90183372</t>
+  </si>
+  <si>
+    <t>University of Lorraine</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I70931966</t>
+  </si>
+  <si>
+    <t>University of Montreal</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I97188460</t>
+  </si>
+  <si>
+    <t>University of Nantes</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I204730241</t>
+  </si>
+  <si>
+    <t>University of Paris</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I110017253</t>
+  </si>
+  <si>
+    <t>François Rabelais University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I63596082</t>
+  </si>
+  <si>
+    <t>Tunis El Manar University</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I195731000</t>
+  </si>
+  <si>
+    <t>Versailles Saint-Quentin-en-Yvelines University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I157169809</t>
+  </si>
+  <si>
+    <t>University of Sciences and Technology Houari Boumediene</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I159129438</t>
+  </si>
+  <si>
+    <t>University of Quebec at Montreal</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I899635006</t>
+  </si>
+  <si>
+    <t>Grenoble Alpes University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I2746051580</t>
+  </si>
+  <si>
+    <t>PSL Research University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I2800365227</t>
+  </si>
+  <si>
+    <t>University of Paris-Est</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I277688954</t>
+  </si>
+  <si>
+    <t>University of Paris-Saclay</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4210091279</t>
+  </si>
+  <si>
+    <t>Paris 13 University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I134560555</t>
+  </si>
+  <si>
+    <t>Paul Sabatier University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I2801594805</t>
+  </si>
+  <si>
+    <t>University Kebangsaan Malaysia Medical Centre</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4576418</t>
+  </si>
+  <si>
+    <t>University of Technology Malaysia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I392282</t>
+  </si>
+  <si>
+    <t>University at Albany, State University of New York</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I63190737</t>
+  </si>
+  <si>
+    <t>University at Buffalo, State University of New York</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I32389192</t>
+  </si>
+  <si>
+    <t>University of Alabama at Birmingham</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I17301866</t>
+  </si>
+  <si>
+    <t>University of Alabama</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I79620101</t>
+  </si>
+  <si>
+    <t>University of Arkansas for Medical Sciences</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I78715868</t>
+  </si>
+  <si>
+    <t>University of Arkansas at Fayetteville</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I98702875</t>
+  </si>
+  <si>
+    <t>Université de Caen Normandie</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I181391015</t>
+  </si>
+  <si>
+    <t>State University of Campinas</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I9073902</t>
+  </si>
+  <si>
+    <t>University of Chemistry and Technology</t>
   </si>
 </sst>
 </file>
@@ -2487,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A212" sqref="A165:A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,19 +5393,22 @@
         <v>245</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>687</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>688</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>183</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4936,19 +5422,22 @@
         <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>689</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>690</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4962,19 +5451,22 @@
         <v>249</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>691</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>692</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>607</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4988,19 +5480,22 @@
         <v>251</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>693</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>694</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5014,19 +5509,22 @@
         <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>695</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>696</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,19 +5538,22 @@
         <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>697</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>698</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>618</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5066,19 +5567,22 @@
         <v>257</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>699</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>618</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5106,6 +5610,9 @@
       <c r="H90" t="s">
         <v>52</v>
       </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -5132,6 +5639,9 @@
       <c r="H91" t="s">
         <v>265</v>
       </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -5144,19 +5654,22 @@
         <v>267</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>701</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>702</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>703</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5170,19 +5683,22 @@
         <v>269</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>704</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>705</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>703</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5210,6 +5726,9 @@
       <c r="H94" t="s">
         <v>275</v>
       </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -5222,19 +5741,22 @@
         <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>706</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>707</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>708</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5248,22 +5770,25 @@
         <v>280</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>709</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>710</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>281</v>
       </c>
@@ -5274,22 +5799,25 @@
         <v>282</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>711</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>712</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>283</v>
       </c>
@@ -5300,22 +5828,25 @@
         <v>284</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>713</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>714</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>285</v>
       </c>
@@ -5326,22 +5857,25 @@
         <v>286</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>715</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>716</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>287</v>
       </c>
@@ -5352,22 +5886,25 @@
         <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>717</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>718</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -5378,22 +5915,25 @@
         <v>290</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>719</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>559</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -5404,22 +5944,25 @@
         <v>292</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>721</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>722</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>293</v>
       </c>
@@ -5430,22 +5973,25 @@
         <v>294</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>723</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>724</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>295</v>
       </c>
@@ -5456,22 +6002,25 @@
         <v>296</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>725</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>726</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>708</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>297</v>
       </c>
@@ -5482,22 +6031,25 @@
         <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>727</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>728</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>299</v>
       </c>
@@ -5508,22 +6060,25 @@
         <v>300</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>729</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>730</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>301</v>
       </c>
@@ -5534,22 +6089,25 @@
         <v>302</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>731</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>732</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -5560,22 +6118,25 @@
         <v>304</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>733</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>734</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>305</v>
       </c>
@@ -5586,22 +6147,25 @@
         <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>735</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>736</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>568</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>307</v>
       </c>
@@ -5626,8 +6190,11 @@
       <c r="H110" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -5638,22 +6205,25 @@
         <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>737</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>738</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>739</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -5664,22 +6234,25 @@
         <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>740</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>741</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>319</v>
       </c>
@@ -5690,22 +6263,25 @@
         <v>320</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>742</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>743</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>321</v>
       </c>
@@ -5716,22 +6292,25 @@
         <v>322</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>744</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>745</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>323</v>
       </c>
@@ -5742,22 +6321,25 @@
         <v>325</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>746</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>747</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>748</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -5768,22 +6350,25 @@
         <v>327</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>749</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>750</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>328</v>
       </c>
@@ -5794,22 +6379,25 @@
         <v>330</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>751</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>752</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>753</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>331</v>
       </c>
@@ -5834,8 +6422,11 @@
       <c r="H118" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>338</v>
       </c>
@@ -5846,22 +6437,25 @@
         <v>339</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>754</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>755</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>437</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>340</v>
       </c>
@@ -5872,22 +6466,25 @@
         <v>342</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>756</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>757</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>483</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>343</v>
       </c>
@@ -5898,22 +6495,25 @@
         <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>759</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>758</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>345</v>
       </c>
@@ -5924,22 +6524,25 @@
         <v>347</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>760</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>761</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>762</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -5950,22 +6553,25 @@
         <v>349</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>763</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>764</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>350</v>
       </c>
@@ -5976,22 +6582,25 @@
         <v>351</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>765</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>766</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>352</v>
       </c>
@@ -6002,22 +6611,25 @@
         <v>353</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>767</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>768</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>354</v>
       </c>
@@ -6028,22 +6640,25 @@
         <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>769</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>356</v>
       </c>
@@ -6054,22 +6669,25 @@
         <v>357</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>771</v>
       </c>
       <c r="E127" t="s">
-        <v>18</v>
+        <v>772</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>358</v>
       </c>
@@ -6080,22 +6698,25 @@
         <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>773</v>
       </c>
       <c r="E128" t="s">
-        <v>18</v>
+        <v>774</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>360</v>
       </c>
@@ -6106,22 +6727,25 @@
         <v>361</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>775</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>776</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>362</v>
       </c>
@@ -6132,22 +6756,25 @@
         <v>363</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>777</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>778</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>364</v>
       </c>
@@ -6158,22 +6785,25 @@
         <v>365</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>779</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>780</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>366</v>
       </c>
@@ -6184,22 +6814,25 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>781</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>782</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>368</v>
       </c>
@@ -6210,22 +6843,25 @@
         <v>369</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>783</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>784</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>370</v>
       </c>
@@ -6236,22 +6872,25 @@
         <v>371</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>785</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>786</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -6262,22 +6901,25 @@
         <v>373</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>787</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>788</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>374</v>
       </c>
@@ -6288,22 +6930,25 @@
         <v>375</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>789</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>790</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>651</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>376</v>
       </c>
@@ -6314,22 +6959,25 @@
         <v>377</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>791</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>792</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>378</v>
       </c>
@@ -6340,22 +6988,25 @@
         <v>379</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>793</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>794</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>380</v>
       </c>
@@ -6366,22 +7017,25 @@
         <v>381</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>796</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="H139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>382</v>
       </c>
@@ -6392,22 +7046,25 @@
         <v>383</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>798</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>799</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>384</v>
       </c>
@@ -6418,22 +7075,25 @@
         <v>385</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>801</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>386</v>
       </c>
@@ -6444,22 +7104,25 @@
         <v>387</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>802</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>803</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>388</v>
       </c>
@@ -6470,22 +7133,25 @@
         <v>390</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>804</v>
       </c>
       <c r="E143" t="s">
-        <v>18</v>
+        <v>805</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>806</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>391</v>
       </c>
@@ -6496,22 +7162,25 @@
         <v>392</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>807</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>808</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>393</v>
       </c>
@@ -6522,22 +7191,25 @@
         <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>809</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>810</v>
       </c>
       <c r="F145" t="s">
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>811</v>
       </c>
       <c r="H145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>396</v>
       </c>
@@ -6548,22 +7220,25 @@
         <v>397</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>812</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>813</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="H146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>398</v>
       </c>
@@ -6574,22 +7249,25 @@
         <v>399</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>814</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>815</v>
       </c>
       <c r="F147" t="s">
         <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>400</v>
       </c>
@@ -6600,22 +7278,25 @@
         <v>401</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>816</v>
       </c>
       <c r="E148" t="s">
-        <v>18</v>
+        <v>817</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>402</v>
       </c>
@@ -6626,22 +7307,25 @@
         <v>403</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>818</v>
       </c>
       <c r="E149" t="s">
-        <v>18</v>
+        <v>819</v>
       </c>
       <c r="F149" t="s">
         <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>404</v>
       </c>
@@ -6652,22 +7336,25 @@
         <v>405</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>821</v>
       </c>
       <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>406</v>
       </c>
@@ -6678,22 +7365,25 @@
         <v>407</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>822</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>823</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>408</v>
       </c>
@@ -6704,22 +7394,25 @@
         <v>409</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>824</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>825</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>410</v>
       </c>
@@ -6730,22 +7423,25 @@
         <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>826</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>827</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H153" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>412</v>
       </c>
@@ -6756,22 +7452,25 @@
         <v>413</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>828</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>829</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>414</v>
       </c>
@@ -6782,22 +7481,25 @@
         <v>415</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>830</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>831</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>416</v>
       </c>
@@ -6808,22 +7510,25 @@
         <v>417</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>832</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>833</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>418</v>
       </c>
@@ -6834,22 +7539,25 @@
         <v>419</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>834</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>835</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H157" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>420</v>
       </c>
@@ -6860,22 +7568,25 @@
         <v>421</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>836</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>837</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>422</v>
       </c>
@@ -6886,22 +7597,25 @@
         <v>423</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>838</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>839</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H159" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>424</v>
       </c>
@@ -6912,22 +7626,25 @@
         <v>425</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>840</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>841</v>
       </c>
       <c r="F160" t="s">
         <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H160" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>426</v>
       </c>
@@ -6938,22 +7655,25 @@
         <v>427</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>842</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>843</v>
       </c>
       <c r="F161" t="s">
         <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="H161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>428</v>
       </c>
@@ -6964,22 +7684,25 @@
         <v>429</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>844</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>845</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>430</v>
       </c>
@@ -6990,22 +7713,25 @@
         <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>846</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>847</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H163" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>432</v>
       </c>
@@ -7030,8 +7756,11 @@
       <c r="H164" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>438</v>
       </c>
@@ -7057,7 +7786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>440</v>
       </c>
@@ -7083,7 +7812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>442</v>
       </c>
@@ -7109,7 +7838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>444</v>
       </c>
@@ -7135,7 +7864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>446</v>
       </c>
@@ -7161,7 +7890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>448</v>
       </c>
@@ -7187,7 +7916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>450</v>
       </c>
@@ -7213,7 +7942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>452</v>
       </c>
@@ -7239,7 +7968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>454</v>
       </c>
@@ -7265,7 +7994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>456</v>
       </c>
@@ -7291,7 +8020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>458</v>
       </c>
@@ -7317,7 +8046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>460</v>
       </c>
@@ -8175,7 +8904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>536</v>
       </c>
@@ -8201,7 +8930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>538</v>
       </c>
@@ -8227,7 +8956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -8253,7 +8982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>542</v>
       </c>
@@ -8279,7 +9008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>544</v>
       </c>
@@ -8303,6 +9032,9 @@
       </c>
       <c r="H213" t="s">
         <v>548</v>
+      </c>
+      <c r="I213" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8312,5 +9044,6 @@
     <hyperlink ref="D39" r:id="rId3" xr:uid="{F0BCB511-D579-4B83-9B99-8266AB4450DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920C544-2CDE-4D19-A79D-0722E00546AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEEE68B-C20C-412C-A00E-93EE1CA025D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="7646" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="leiden_matching_table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="leiden_unmatched" localSheetId="0">Sheet1!$A$1:$H$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leiden_matching_table!$A$1:$J$213</definedName>
+    <definedName name="leiden_unmatched" localSheetId="0">leiden_matching_table!$A$1:$H$213</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="938">
   <si>
     <t>University</t>
   </si>
@@ -2166,9 +2167,6 @@
     <t>Saint Louis University</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>https://openalex.org/I59553526</t>
   </si>
   <si>
@@ -2599,6 +2597,279 @@
   </si>
   <si>
     <t>University of Chemistry and Technology</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I165733156</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I117965899</t>
+  </si>
+  <si>
+    <t>University of Hawaii at Manoa</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4210128276</t>
+  </si>
+  <si>
+    <t>Sağlık Bilimleri Üniversitesi</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I39422238</t>
+  </si>
+  <si>
+    <t>University of Illinois at Chicago</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I143397708</t>
+  </si>
+  <si>
+    <t>Innsbruck Medical University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I158552681</t>
+  </si>
+  <si>
+    <t>University of Life Sciences</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I7947594</t>
+  </si>
+  <si>
+    <t>University of Maine</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I27837315</t>
+  </si>
+  <si>
+    <t>University of Michigan–Ann Arbor</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I130238516</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I76835614</t>
+  </si>
+  <si>
+    <t>University of Missouri</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I75421653</t>
+  </si>
+  <si>
+    <t>University of Missouri–Kansas City</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I92869138</t>
+  </si>
+  <si>
+    <t>University of Natural Resources and Life Sciences</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I114395901</t>
+  </si>
+  <si>
+    <t>University of Nebraska–Lincoln</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I31746571</t>
+  </si>
+  <si>
+    <t>UNSW Sydney</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I78757542</t>
+  </si>
+  <si>
+    <t>University of Newcastle Australia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I114027177</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I102149020</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Charlotte</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I169335092</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Greensboro</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I138689650</t>
+  </si>
+  <si>
+    <t>University of Padua</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I17974374</t>
+  </si>
+  <si>
+    <t>Universidade de São Paulo</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I864159182</t>
+  </si>
+  <si>
+    <t>University of Silesia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I155781252</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I2613432</t>
+  </si>
+  <si>
+    <t>University of South Florida</t>
+  </si>
+  <si>
+    <t>it is unclear to which entitity the leiden ranking refers to: in OpenAlex there are two, since "tampere uni" is a merger of "uni of tampere" and the technical uni.</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I75027704</t>
+  </si>
+  <si>
+    <t>University of Tennessee at Knoxville</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I189196454</t>
+  </si>
+  <si>
+    <t>The University of Texas at Arlington</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I86519309</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I162577319</t>
+  </si>
+  <si>
+    <t>The University of Texas at Dallas</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I164936912</t>
+  </si>
+  <si>
+    <t>The University of Texas at El Paso</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I45438204</t>
+  </si>
+  <si>
+    <t>The University of Texas at San Antonio</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I919571938</t>
+  </si>
+  <si>
+    <t>The University of Texas Health Science Center at Houston</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I165951966</t>
+  </si>
+  <si>
+    <t>The University of Texas Health Science Center at San Antonio</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I55302922</t>
+  </si>
+  <si>
+    <t>The University of Texas Medical Branch at Galveston</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I867280407</t>
+  </si>
+  <si>
+    <t>The University of Texas Southwestern Medical Center</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4210165038</t>
+  </si>
+  <si>
+    <t>University of Chinese Academy of Sciences</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I178535277</t>
+  </si>
+  <si>
+    <t>University of the West of England</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I201448701</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I135310074</t>
+  </si>
+  <si>
+    <t>University of Wisconsin–Madison</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I43579087</t>
+  </si>
+  <si>
+    <t>University of Wisconsin–Milwaukee</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I876193797</t>
+  </si>
+  <si>
+    <t>Vellore Institute of Technology University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I71270174</t>
+  </si>
+  <si>
+    <t>Victoria University</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I145847075</t>
+  </si>
+  <si>
+    <t>TU Wien</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I859038795</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I865915315</t>
+  </si>
+  <si>
+    <t>VU Amsterdam</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I155313962</t>
+  </si>
+  <si>
+    <t>West Pomeranian University of Technology</t>
   </si>
 </sst>
 </file>
@@ -2970,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A212" sqref="A165:A212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,10 +4907,10 @@
         <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>645</v>
+        <v>855</v>
       </c>
       <c r="E57" t="s">
-        <v>646</v>
+        <v>856</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -5666,7 +5937,7 @@
         <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>703</v>
+        <v>25</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -5683,10 +5954,10 @@
         <v>269</v>
       </c>
       <c r="D93" t="s">
+        <v>703</v>
+      </c>
+      <c r="E93" t="s">
         <v>704</v>
-      </c>
-      <c r="E93" t="s">
-        <v>705</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -5695,7 +5966,7 @@
         <v>31</v>
       </c>
       <c r="H93" t="s">
-        <v>703</v>
+        <v>25</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -5741,16 +6012,16 @@
         <v>278</v>
       </c>
       <c r="D95" t="s">
+        <v>705</v>
+      </c>
+      <c r="E95" t="s">
         <v>706</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
         <v>707</v>
-      </c>
-      <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>708</v>
       </c>
       <c r="H95" t="s">
         <v>277</v>
@@ -5770,10 +6041,10 @@
         <v>280</v>
       </c>
       <c r="D96" t="s">
+        <v>708</v>
+      </c>
+      <c r="E96" t="s">
         <v>709</v>
-      </c>
-      <c r="E96" t="s">
-        <v>710</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -5799,10 +6070,10 @@
         <v>282</v>
       </c>
       <c r="D97" t="s">
+        <v>710</v>
+      </c>
+      <c r="E97" t="s">
         <v>711</v>
-      </c>
-      <c r="E97" t="s">
-        <v>712</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -5828,10 +6099,10 @@
         <v>284</v>
       </c>
       <c r="D98" t="s">
+        <v>712</v>
+      </c>
+      <c r="E98" t="s">
         <v>713</v>
-      </c>
-      <c r="E98" t="s">
-        <v>714</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -5857,10 +6128,10 @@
         <v>286</v>
       </c>
       <c r="D99" t="s">
+        <v>714</v>
+      </c>
+      <c r="E99" t="s">
         <v>715</v>
-      </c>
-      <c r="E99" t="s">
-        <v>716</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -5886,10 +6157,10 @@
         <v>288</v>
       </c>
       <c r="D100" t="s">
+        <v>716</v>
+      </c>
+      <c r="E100" t="s">
         <v>717</v>
-      </c>
-      <c r="E100" t="s">
-        <v>718</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -5915,10 +6186,10 @@
         <v>290</v>
       </c>
       <c r="D101" t="s">
+        <v>718</v>
+      </c>
+      <c r="E101" t="s">
         <v>719</v>
-      </c>
-      <c r="E101" t="s">
-        <v>720</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -5944,10 +6215,10 @@
         <v>292</v>
       </c>
       <c r="D102" t="s">
+        <v>720</v>
+      </c>
+      <c r="E102" t="s">
         <v>721</v>
-      </c>
-      <c r="E102" t="s">
-        <v>722</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -5973,10 +6244,10 @@
         <v>294</v>
       </c>
       <c r="D103" t="s">
+        <v>722</v>
+      </c>
+      <c r="E103" t="s">
         <v>723</v>
-      </c>
-      <c r="E103" t="s">
-        <v>724</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -6002,16 +6273,16 @@
         <v>296</v>
       </c>
       <c r="D104" t="s">
+        <v>724</v>
+      </c>
+      <c r="E104" t="s">
         <v>725</v>
       </c>
-      <c r="E104" t="s">
-        <v>726</v>
-      </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H104" t="s">
         <v>277</v>
@@ -6031,10 +6302,10 @@
         <v>298</v>
       </c>
       <c r="D105" t="s">
+        <v>726</v>
+      </c>
+      <c r="E105" t="s">
         <v>727</v>
-      </c>
-      <c r="E105" t="s">
-        <v>728</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -6060,10 +6331,10 @@
         <v>300</v>
       </c>
       <c r="D106" t="s">
+        <v>728</v>
+      </c>
+      <c r="E106" t="s">
         <v>729</v>
-      </c>
-      <c r="E106" t="s">
-        <v>730</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -6089,10 +6360,10 @@
         <v>302</v>
       </c>
       <c r="D107" t="s">
+        <v>730</v>
+      </c>
+      <c r="E107" t="s">
         <v>731</v>
-      </c>
-      <c r="E107" t="s">
-        <v>732</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -6118,10 +6389,10 @@
         <v>304</v>
       </c>
       <c r="D108" t="s">
+        <v>732</v>
+      </c>
+      <c r="E108" t="s">
         <v>733</v>
-      </c>
-      <c r="E108" t="s">
-        <v>734</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
@@ -6147,10 +6418,10 @@
         <v>306</v>
       </c>
       <c r="D109" t="s">
+        <v>734</v>
+      </c>
+      <c r="E109" t="s">
         <v>735</v>
-      </c>
-      <c r="E109" t="s">
-        <v>736</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
@@ -6205,16 +6476,16 @@
         <v>316</v>
       </c>
       <c r="D111" t="s">
+        <v>736</v>
+      </c>
+      <c r="E111" t="s">
         <v>737</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s">
         <v>738</v>
-      </c>
-      <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>739</v>
       </c>
       <c r="H111" t="s">
         <v>315</v>
@@ -6234,10 +6505,10 @@
         <v>318</v>
       </c>
       <c r="D112" t="s">
+        <v>739</v>
+      </c>
+      <c r="E112" t="s">
         <v>740</v>
-      </c>
-      <c r="E112" t="s">
-        <v>741</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -6263,10 +6534,10 @@
         <v>320</v>
       </c>
       <c r="D113" t="s">
+        <v>741</v>
+      </c>
+      <c r="E113" t="s">
         <v>742</v>
-      </c>
-      <c r="E113" t="s">
-        <v>743</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -6292,10 +6563,10 @@
         <v>322</v>
       </c>
       <c r="D114" t="s">
+        <v>743</v>
+      </c>
+      <c r="E114" t="s">
         <v>744</v>
-      </c>
-      <c r="E114" t="s">
-        <v>745</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
@@ -6321,16 +6592,16 @@
         <v>325</v>
       </c>
       <c r="D115" t="s">
+        <v>745</v>
+      </c>
+      <c r="E115" t="s">
         <v>746</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s">
         <v>747</v>
-      </c>
-      <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>748</v>
       </c>
       <c r="H115" t="s">
         <v>324</v>
@@ -6350,10 +6621,10 @@
         <v>327</v>
       </c>
       <c r="D116" t="s">
+        <v>748</v>
+      </c>
+      <c r="E116" t="s">
         <v>749</v>
-      </c>
-      <c r="E116" t="s">
-        <v>750</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
@@ -6379,16 +6650,16 @@
         <v>330</v>
       </c>
       <c r="D117" t="s">
+        <v>750</v>
+      </c>
+      <c r="E117" t="s">
         <v>751</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
         <v>752</v>
-      </c>
-      <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>753</v>
       </c>
       <c r="H117" t="s">
         <v>329</v>
@@ -6437,10 +6708,10 @@
         <v>339</v>
       </c>
       <c r="D119" t="s">
+        <v>753</v>
+      </c>
+      <c r="E119" t="s">
         <v>754</v>
-      </c>
-      <c r="E119" t="s">
-        <v>755</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
@@ -6466,10 +6737,10 @@
         <v>342</v>
       </c>
       <c r="D120" t="s">
+        <v>755</v>
+      </c>
+      <c r="E120" t="s">
         <v>756</v>
-      </c>
-      <c r="E120" t="s">
-        <v>757</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
@@ -6495,10 +6766,10 @@
         <v>344</v>
       </c>
       <c r="D121" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E121" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
@@ -6524,16 +6795,16 @@
         <v>347</v>
       </c>
       <c r="D122" t="s">
+        <v>759</v>
+      </c>
+      <c r="E122" t="s">
         <v>760</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
         <v>761</v>
-      </c>
-      <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>762</v>
       </c>
       <c r="H122" t="s">
         <v>346</v>
@@ -6553,10 +6824,10 @@
         <v>349</v>
       </c>
       <c r="D123" t="s">
+        <v>762</v>
+      </c>
+      <c r="E123" t="s">
         <v>763</v>
-      </c>
-      <c r="E123" t="s">
-        <v>764</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -6582,10 +6853,10 @@
         <v>351</v>
       </c>
       <c r="D124" t="s">
+        <v>764</v>
+      </c>
+      <c r="E124" t="s">
         <v>765</v>
-      </c>
-      <c r="E124" t="s">
-        <v>766</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -6611,10 +6882,10 @@
         <v>353</v>
       </c>
       <c r="D125" t="s">
+        <v>766</v>
+      </c>
+      <c r="E125" t="s">
         <v>767</v>
-      </c>
-      <c r="E125" t="s">
-        <v>768</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
@@ -6640,10 +6911,10 @@
         <v>355</v>
       </c>
       <c r="D126" t="s">
+        <v>768</v>
+      </c>
+      <c r="E126" t="s">
         <v>769</v>
-      </c>
-      <c r="E126" t="s">
-        <v>770</v>
       </c>
       <c r="F126" t="s">
         <v>18</v>
@@ -6669,10 +6940,10 @@
         <v>357</v>
       </c>
       <c r="D127" t="s">
+        <v>770</v>
+      </c>
+      <c r="E127" t="s">
         <v>771</v>
-      </c>
-      <c r="E127" t="s">
-        <v>772</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -6698,10 +6969,10 @@
         <v>359</v>
       </c>
       <c r="D128" t="s">
+        <v>772</v>
+      </c>
+      <c r="E128" t="s">
         <v>773</v>
-      </c>
-      <c r="E128" t="s">
-        <v>774</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -6727,10 +6998,10 @@
         <v>361</v>
       </c>
       <c r="D129" t="s">
+        <v>774</v>
+      </c>
+      <c r="E129" t="s">
         <v>775</v>
-      </c>
-      <c r="E129" t="s">
-        <v>776</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
@@ -6756,10 +7027,10 @@
         <v>363</v>
       </c>
       <c r="D130" t="s">
+        <v>776</v>
+      </c>
+      <c r="E130" t="s">
         <v>777</v>
-      </c>
-      <c r="E130" t="s">
-        <v>778</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -6785,10 +7056,10 @@
         <v>365</v>
       </c>
       <c r="D131" t="s">
+        <v>778</v>
+      </c>
+      <c r="E131" t="s">
         <v>779</v>
-      </c>
-      <c r="E131" t="s">
-        <v>780</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -6814,10 +7085,10 @@
         <v>367</v>
       </c>
       <c r="D132" t="s">
+        <v>780</v>
+      </c>
+      <c r="E132" t="s">
         <v>781</v>
-      </c>
-      <c r="E132" t="s">
-        <v>782</v>
       </c>
       <c r="F132" t="s">
         <v>18</v>
@@ -6843,10 +7114,10 @@
         <v>369</v>
       </c>
       <c r="D133" t="s">
+        <v>782</v>
+      </c>
+      <c r="E133" t="s">
         <v>783</v>
-      </c>
-      <c r="E133" t="s">
-        <v>784</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
@@ -6872,10 +7143,10 @@
         <v>371</v>
       </c>
       <c r="D134" t="s">
+        <v>784</v>
+      </c>
+      <c r="E134" t="s">
         <v>785</v>
-      </c>
-      <c r="E134" t="s">
-        <v>786</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -6901,10 +7172,10 @@
         <v>373</v>
       </c>
       <c r="D135" t="s">
+        <v>786</v>
+      </c>
+      <c r="E135" t="s">
         <v>787</v>
-      </c>
-      <c r="E135" t="s">
-        <v>788</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
@@ -6930,10 +7201,10 @@
         <v>375</v>
       </c>
       <c r="D136" t="s">
+        <v>788</v>
+      </c>
+      <c r="E136" t="s">
         <v>789</v>
-      </c>
-      <c r="E136" t="s">
-        <v>790</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -6959,10 +7230,10 @@
         <v>377</v>
       </c>
       <c r="D137" t="s">
+        <v>790</v>
+      </c>
+      <c r="E137" t="s">
         <v>791</v>
-      </c>
-      <c r="E137" t="s">
-        <v>792</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -6988,10 +7259,10 @@
         <v>379</v>
       </c>
       <c r="D138" t="s">
+        <v>792</v>
+      </c>
+      <c r="E138" t="s">
         <v>793</v>
-      </c>
-      <c r="E138" t="s">
-        <v>794</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -7017,16 +7288,16 @@
         <v>381</v>
       </c>
       <c r="D139" t="s">
+        <v>794</v>
+      </c>
+      <c r="E139" t="s">
         <v>795</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
         <v>796</v>
-      </c>
-      <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>797</v>
       </c>
       <c r="H139" t="s">
         <v>75</v>
@@ -7046,10 +7317,10 @@
         <v>383</v>
       </c>
       <c r="D140" t="s">
+        <v>797</v>
+      </c>
+      <c r="E140" t="s">
         <v>798</v>
-      </c>
-      <c r="E140" t="s">
-        <v>799</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
@@ -7075,10 +7346,10 @@
         <v>385</v>
       </c>
       <c r="D141" t="s">
+        <v>799</v>
+      </c>
+      <c r="E141" t="s">
         <v>800</v>
-      </c>
-      <c r="E141" t="s">
-        <v>801</v>
       </c>
       <c r="F141" t="s">
         <v>18</v>
@@ -7104,10 +7375,10 @@
         <v>387</v>
       </c>
       <c r="D142" t="s">
+        <v>801</v>
+      </c>
+      <c r="E142" t="s">
         <v>802</v>
-      </c>
-      <c r="E142" t="s">
-        <v>803</v>
       </c>
       <c r="F142" t="s">
         <v>18</v>
@@ -7133,16 +7404,16 @@
         <v>390</v>
       </c>
       <c r="D143" t="s">
+        <v>803</v>
+      </c>
+      <c r="E143" t="s">
         <v>804</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
         <v>805</v>
-      </c>
-      <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>806</v>
       </c>
       <c r="H143" t="s">
         <v>389</v>
@@ -7162,10 +7433,10 @@
         <v>392</v>
       </c>
       <c r="D144" t="s">
+        <v>806</v>
+      </c>
+      <c r="E144" t="s">
         <v>807</v>
-      </c>
-      <c r="E144" t="s">
-        <v>808</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
@@ -7191,16 +7462,16 @@
         <v>395</v>
       </c>
       <c r="D145" t="s">
+        <v>808</v>
+      </c>
+      <c r="E145" t="s">
         <v>809</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
         <v>810</v>
-      </c>
-      <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>811</v>
       </c>
       <c r="H145" t="s">
         <v>394</v>
@@ -7220,16 +7491,16 @@
         <v>397</v>
       </c>
       <c r="D146" t="s">
+        <v>811</v>
+      </c>
+      <c r="E146" t="s">
         <v>812</v>
       </c>
-      <c r="E146" t="s">
-        <v>813</v>
-      </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H146" t="s">
         <v>75</v>
@@ -7249,10 +7520,10 @@
         <v>399</v>
       </c>
       <c r="D147" t="s">
+        <v>813</v>
+      </c>
+      <c r="E147" t="s">
         <v>814</v>
-      </c>
-      <c r="E147" t="s">
-        <v>815</v>
       </c>
       <c r="F147" t="s">
         <v>18</v>
@@ -7278,10 +7549,10 @@
         <v>401</v>
       </c>
       <c r="D148" t="s">
+        <v>815</v>
+      </c>
+      <c r="E148" t="s">
         <v>816</v>
-      </c>
-      <c r="E148" t="s">
-        <v>817</v>
       </c>
       <c r="F148" t="s">
         <v>18</v>
@@ -7307,10 +7578,10 @@
         <v>403</v>
       </c>
       <c r="D149" t="s">
+        <v>817</v>
+      </c>
+      <c r="E149" t="s">
         <v>818</v>
-      </c>
-      <c r="E149" t="s">
-        <v>819</v>
       </c>
       <c r="F149" t="s">
         <v>18</v>
@@ -7336,10 +7607,10 @@
         <v>405</v>
       </c>
       <c r="D150" t="s">
+        <v>819</v>
+      </c>
+      <c r="E150" t="s">
         <v>820</v>
-      </c>
-      <c r="E150" t="s">
-        <v>821</v>
       </c>
       <c r="F150" t="s">
         <v>18</v>
@@ -7365,10 +7636,10 @@
         <v>407</v>
       </c>
       <c r="D151" t="s">
+        <v>821</v>
+      </c>
+      <c r="E151" t="s">
         <v>822</v>
-      </c>
-      <c r="E151" t="s">
-        <v>823</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
@@ -7394,10 +7665,10 @@
         <v>409</v>
       </c>
       <c r="D152" t="s">
+        <v>823</v>
+      </c>
+      <c r="E152" t="s">
         <v>824</v>
-      </c>
-      <c r="E152" t="s">
-        <v>825</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
@@ -7423,10 +7694,10 @@
         <v>411</v>
       </c>
       <c r="D153" t="s">
+        <v>825</v>
+      </c>
+      <c r="E153" t="s">
         <v>826</v>
-      </c>
-      <c r="E153" t="s">
-        <v>827</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
@@ -7452,10 +7723,10 @@
         <v>413</v>
       </c>
       <c r="D154" t="s">
+        <v>827</v>
+      </c>
+      <c r="E154" t="s">
         <v>828</v>
-      </c>
-      <c r="E154" t="s">
-        <v>829</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
@@ -7481,10 +7752,10 @@
         <v>415</v>
       </c>
       <c r="D155" t="s">
+        <v>829</v>
+      </c>
+      <c r="E155" t="s">
         <v>830</v>
-      </c>
-      <c r="E155" t="s">
-        <v>831</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
@@ -7510,10 +7781,10 @@
         <v>417</v>
       </c>
       <c r="D156" t="s">
+        <v>831</v>
+      </c>
+      <c r="E156" t="s">
         <v>832</v>
-      </c>
-      <c r="E156" t="s">
-        <v>833</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
@@ -7539,10 +7810,10 @@
         <v>419</v>
       </c>
       <c r="D157" t="s">
+        <v>833</v>
+      </c>
+      <c r="E157" t="s">
         <v>834</v>
-      </c>
-      <c r="E157" t="s">
-        <v>835</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -7568,10 +7839,10 @@
         <v>421</v>
       </c>
       <c r="D158" t="s">
+        <v>835</v>
+      </c>
+      <c r="E158" t="s">
         <v>836</v>
-      </c>
-      <c r="E158" t="s">
-        <v>837</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
@@ -7597,10 +7868,10 @@
         <v>423</v>
       </c>
       <c r="D159" t="s">
+        <v>837</v>
+      </c>
+      <c r="E159" t="s">
         <v>838</v>
-      </c>
-      <c r="E159" t="s">
-        <v>839</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
@@ -7626,10 +7897,10 @@
         <v>425</v>
       </c>
       <c r="D160" t="s">
+        <v>839</v>
+      </c>
+      <c r="E160" t="s">
         <v>840</v>
-      </c>
-      <c r="E160" t="s">
-        <v>841</v>
       </c>
       <c r="F160" t="s">
         <v>18</v>
@@ -7655,10 +7926,10 @@
         <v>427</v>
       </c>
       <c r="D161" t="s">
+        <v>841</v>
+      </c>
+      <c r="E161" t="s">
         <v>842</v>
-      </c>
-      <c r="E161" t="s">
-        <v>843</v>
       </c>
       <c r="F161" t="s">
         <v>18</v>
@@ -7684,10 +7955,10 @@
         <v>429</v>
       </c>
       <c r="D162" t="s">
+        <v>843</v>
+      </c>
+      <c r="E162" t="s">
         <v>844</v>
-      </c>
-      <c r="E162" t="s">
-        <v>845</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
@@ -7713,10 +7984,10 @@
         <v>431</v>
       </c>
       <c r="D163" t="s">
+        <v>845</v>
+      </c>
+      <c r="E163" t="s">
         <v>846</v>
-      </c>
-      <c r="E163" t="s">
-        <v>847</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
@@ -7771,19 +8042,22 @@
         <v>439</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>847</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>848</v>
       </c>
       <c r="F165" t="s">
         <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H165" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7797,19 +8071,22 @@
         <v>441</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>849</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="F166" t="s">
         <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7823,19 +8100,22 @@
         <v>443</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>851</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>852</v>
       </c>
       <c r="F167" t="s">
         <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="H167" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7849,19 +8129,22 @@
         <v>445</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>853</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>854</v>
       </c>
       <c r="F168" t="s">
         <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H168" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7875,19 +8158,22 @@
         <v>447</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>645</v>
       </c>
       <c r="E169" t="s">
-        <v>18</v>
+        <v>646</v>
       </c>
       <c r="F169" t="s">
         <v>18</v>
       </c>
       <c r="G169" t="s">
-        <v>18</v>
+        <v>624</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
+        <v>145</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7901,19 +8187,22 @@
         <v>449</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>857</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>858</v>
       </c>
       <c r="F170" t="s">
         <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="H170" t="s">
-        <v>18</v>
+        <v>176</v>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7927,19 +8216,22 @@
         <v>451</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>859</v>
       </c>
       <c r="E171" t="s">
-        <v>18</v>
+        <v>860</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7953,19 +8245,22 @@
         <v>453</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>861</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>862</v>
       </c>
       <c r="F172" t="s">
         <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H172" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7979,19 +8274,22 @@
         <v>455</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>863</v>
       </c>
       <c r="E173" t="s">
-        <v>18</v>
+        <v>864</v>
       </c>
       <c r="F173" t="s">
         <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H173" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -8005,19 +8303,22 @@
         <v>457</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>865</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>866</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -8031,19 +8332,22 @@
         <v>459</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>867</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>868</v>
       </c>
       <c r="F175" t="s">
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H175" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -8057,22 +8361,25 @@
         <v>461</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>869</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>870</v>
       </c>
       <c r="F176" t="s">
         <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>624</v>
       </c>
       <c r="H176" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>462</v>
       </c>
@@ -8083,22 +8390,25 @@
         <v>463</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>871</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>872</v>
       </c>
       <c r="F177" t="s">
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>464</v>
       </c>
@@ -8123,8 +8433,11 @@
       <c r="H178" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>468</v>
       </c>
@@ -8135,22 +8448,25 @@
         <v>469</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>873</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>874</v>
       </c>
       <c r="F179" t="s">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>18</v>
+        <v>875</v>
       </c>
       <c r="H179" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>470</v>
       </c>
@@ -8161,22 +8477,25 @@
         <v>471</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>876</v>
       </c>
       <c r="E180" t="s">
-        <v>18</v>
+        <v>877</v>
       </c>
       <c r="F180" t="s">
         <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>18</v>
+        <v>875</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>472</v>
       </c>
@@ -8187,22 +8506,25 @@
         <v>473</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>878</v>
       </c>
       <c r="E181" t="s">
-        <v>18</v>
+        <v>879</v>
       </c>
       <c r="F181" t="s">
         <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H181" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>474</v>
       </c>
@@ -8213,22 +8535,25 @@
         <v>475</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>880</v>
       </c>
       <c r="E182" t="s">
-        <v>18</v>
+        <v>881</v>
       </c>
       <c r="F182" t="s">
         <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>476</v>
       </c>
@@ -8239,22 +8564,25 @@
         <v>477</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>882</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>883</v>
       </c>
       <c r="F183" t="s">
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>478</v>
       </c>
@@ -8265,22 +8593,25 @@
         <v>479</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>884</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>885</v>
       </c>
       <c r="F184" t="s">
         <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>480</v>
       </c>
@@ -8305,8 +8636,11 @@
       <c r="H185" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>484</v>
       </c>
@@ -8317,22 +8651,25 @@
         <v>485</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>886</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>887</v>
       </c>
       <c r="F186" t="s">
         <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -8357,8 +8694,11 @@
       <c r="H187" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>491</v>
       </c>
@@ -8369,22 +8709,25 @@
         <v>492</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>888</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>889</v>
       </c>
       <c r="F188" t="s">
         <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>493</v>
       </c>
@@ -8395,22 +8738,25 @@
         <v>494</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>890</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>891</v>
       </c>
       <c r="F189" t="s">
         <v>18</v>
       </c>
       <c r="G189" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>495</v>
       </c>
@@ -8421,22 +8767,25 @@
         <v>496</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>892</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>893</v>
       </c>
       <c r="F190" t="s">
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>497</v>
       </c>
@@ -8459,10 +8808,16 @@
         <v>501</v>
       </c>
       <c r="H191" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="I191" t="s">
+        <v>18</v>
+      </c>
+      <c r="J191" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>502</v>
       </c>
@@ -8473,22 +8828,25 @@
         <v>503</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>895</v>
       </c>
       <c r="E192" t="s">
-        <v>18</v>
+        <v>896</v>
       </c>
       <c r="F192" t="s">
         <v>18</v>
       </c>
       <c r="G192" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H192" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>504</v>
       </c>
@@ -8499,22 +8857,25 @@
         <v>505</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>897</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>898</v>
       </c>
       <c r="F193" t="s">
         <v>18</v>
       </c>
       <c r="G193" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>506</v>
       </c>
@@ -8525,22 +8886,25 @@
         <v>507</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>899</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="F194" t="s">
         <v>18</v>
       </c>
       <c r="G194" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>508</v>
       </c>
@@ -8551,22 +8915,25 @@
         <v>509</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>901</v>
       </c>
       <c r="E195" t="s">
-        <v>18</v>
+        <v>902</v>
       </c>
       <c r="F195" t="s">
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>510</v>
       </c>
@@ -8577,22 +8944,25 @@
         <v>511</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>903</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>904</v>
       </c>
       <c r="F196" t="s">
         <v>18</v>
       </c>
       <c r="G196" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H196" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>512</v>
       </c>
@@ -8603,22 +8973,25 @@
         <v>513</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>905</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>906</v>
       </c>
       <c r="F197" t="s">
         <v>18</v>
       </c>
       <c r="G197" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>514</v>
       </c>
@@ -8629,22 +9002,25 @@
         <v>515</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>907</v>
       </c>
       <c r="E198" t="s">
-        <v>18</v>
+        <v>908</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="G198" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>516</v>
       </c>
@@ -8655,22 +9031,25 @@
         <v>517</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>909</v>
       </c>
       <c r="E199" t="s">
-        <v>18</v>
+        <v>910</v>
       </c>
       <c r="F199" t="s">
         <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>518</v>
       </c>
@@ -8681,22 +9060,25 @@
         <v>519</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>911</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>912</v>
       </c>
       <c r="F200" t="s">
         <v>18</v>
       </c>
       <c r="G200" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>520</v>
       </c>
@@ -8707,22 +9089,25 @@
         <v>521</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>913</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>914</v>
       </c>
       <c r="F201" t="s">
         <v>18</v>
       </c>
       <c r="G201" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>522</v>
       </c>
@@ -8733,22 +9118,25 @@
         <v>523</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>915</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>916</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="G202" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H202" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>524</v>
       </c>
@@ -8759,22 +9147,25 @@
         <v>525</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>917</v>
       </c>
       <c r="E203" t="s">
-        <v>18</v>
+        <v>918</v>
       </c>
       <c r="F203" t="s">
         <v>18</v>
       </c>
       <c r="G203" t="s">
-        <v>18</v>
+        <v>919</v>
       </c>
       <c r="H203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>526</v>
       </c>
@@ -8785,22 +9176,25 @@
         <v>527</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>920</v>
       </c>
       <c r="E204" t="s">
-        <v>18</v>
+        <v>921</v>
       </c>
       <c r="F204" t="s">
         <v>18</v>
       </c>
       <c r="G204" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H204" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>528</v>
       </c>
@@ -8811,22 +9205,25 @@
         <v>529</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>922</v>
       </c>
       <c r="E205" t="s">
-        <v>18</v>
+        <v>923</v>
       </c>
       <c r="F205" t="s">
         <v>18</v>
       </c>
       <c r="G205" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H205" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>530</v>
       </c>
@@ -8837,22 +9234,25 @@
         <v>531</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>924</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
+        <v>925</v>
       </c>
       <c r="F206" t="s">
         <v>18</v>
       </c>
       <c r="G206" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>532</v>
       </c>
@@ -8863,22 +9263,25 @@
         <v>533</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>926</v>
       </c>
       <c r="E207" t="s">
-        <v>18</v>
+        <v>927</v>
       </c>
       <c r="F207" t="s">
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="H207" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>534</v>
       </c>
@@ -8889,19 +9292,22 @@
         <v>535</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>928</v>
       </c>
       <c r="E208" t="s">
-        <v>18</v>
+        <v>929</v>
       </c>
       <c r="F208" t="s">
         <v>18</v>
       </c>
       <c r="G208" t="s">
-        <v>18</v>
+        <v>875</v>
       </c>
       <c r="H208" t="s">
-        <v>18</v>
+        <v>465</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8915,19 +9321,22 @@
         <v>537</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>930</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>931</v>
       </c>
       <c r="F209" t="s">
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>624</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
+        <v>145</v>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8941,19 +9350,22 @@
         <v>539</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>932</v>
       </c>
       <c r="E210" t="s">
-        <v>18</v>
+        <v>933</v>
       </c>
       <c r="F210" t="s">
         <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8967,19 +9379,22 @@
         <v>541</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>934</v>
       </c>
       <c r="E211" t="s">
-        <v>18</v>
+        <v>935</v>
       </c>
       <c r="F211" t="s">
         <v>18</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>686</v>
       </c>
       <c r="H211" t="s">
-        <v>18</v>
+        <v>242</v>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8993,19 +9408,22 @@
         <v>543</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>936</v>
       </c>
       <c r="E212" t="s">
-        <v>18</v>
+        <v>937</v>
       </c>
       <c r="F212" t="s">
         <v>18</v>
       </c>
       <c r="G212" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="H212" t="s">
-        <v>18</v>
+        <v>176</v>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -9038,6 +9456,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J213" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}"/>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1" xr:uid="{22EB7AA0-1C51-45C3-ADB7-67918F3E3DB4}"/>
     <hyperlink ref="D30" r:id="rId2" xr:uid="{620B1651-FE43-4726-B429-9DF38AFE9E46}"/>

--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEEE68B-C20C-412C-A00E-93EE1CA025D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63B1B0-24E5-4734-A76B-02481A628C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
+    <workbookView xWindow="16354" yWindow="7646" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="leiden_matching_table" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="940">
   <si>
     <t>University</t>
   </si>
@@ -91,18 +91,9 @@
     <t>al-azhar university</t>
   </si>
   <si>
-    <t>https://openalex.org/I4210125886</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>All India Institute of Medical Science</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>brescia university</t>
   </si>
   <si>
-    <t>https://openalex.org/I30667456</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -1522,15 +1510,6 @@
     <t>university of science and technology</t>
   </si>
   <si>
-    <t>https://openalex.org/I118692353</t>
-  </si>
-  <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>University of Silesia in Katowice</t>
   </si>
   <si>
@@ -2870,6 +2849,33 @@
   </si>
   <si>
     <t>West Pomeranian University of Technology</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I184834183</t>
+  </si>
+  <si>
+    <t>Al Azhar University</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypot</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I79940851</t>
+  </si>
+  <si>
+    <t>University of Brescia</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I88761825</t>
+  </si>
+  <si>
+    <t>Korea University of Science and Technology</t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
 </sst>
 </file>
@@ -3241,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="J1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3300,80 +3306,80 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E2" t="s">
+        <v>932</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>933</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>934</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -3381,28 +3387,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E5" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -3410,28 +3416,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E6" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -3439,57 +3445,57 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>935</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>936</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>591</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -3497,28 +3503,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -3526,28 +3532,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -3555,28 +3561,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H11" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3584,28 +3590,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -3613,60 +3619,60 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E14" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -3674,28 +3680,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -3703,28 +3709,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E16" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3732,28 +3738,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E17" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3761,28 +3767,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E18" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -3790,28 +3796,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3819,28 +3825,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -3848,28 +3854,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3877,28 +3883,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -3906,28 +3912,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -3935,28 +3941,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E24" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -3964,28 +3970,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E25" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -3993,28 +3999,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E26" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -4022,28 +4028,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E27" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -4051,28 +4057,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E28" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -4080,28 +4086,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E29" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -4109,60 +4115,60 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E30" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -4170,28 +4176,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E32" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -4199,28 +4205,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E33" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -4228,28 +4234,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -4257,28 +4263,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" t="s">
         <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" t="s">
-        <v>120</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -4286,28 +4292,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -4315,28 +4321,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E37" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -4344,28 +4350,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E38" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -4373,28 +4379,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E39" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -4402,28 +4408,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E40" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -4431,28 +4437,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E41" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -4460,60 +4466,60 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
         <v>137</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" t="s">
-        <v>141</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -4521,28 +4527,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E44" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -4550,28 +4556,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E45" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -4579,28 +4585,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E46" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -4608,28 +4614,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E47" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -4637,28 +4643,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E48" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -4666,28 +4672,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E49" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -4695,28 +4701,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E50" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -4724,28 +4730,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E51" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -4753,28 +4759,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E52" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -4782,28 +4788,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
         <v>163</v>
       </c>
-      <c r="B53" t="s">
+      <c r="H53" t="s">
         <v>164</v>
-      </c>
-      <c r="C53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" t="s">
-        <v>168</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -4811,28 +4817,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E54" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -4840,28 +4846,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
         <v>33</v>
       </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -4869,28 +4875,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E56" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -4898,28 +4904,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E57" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -4927,28 +4933,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E58" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -4956,28 +4962,28 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E59" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -4985,28 +4991,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E60" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -5014,28 +5020,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E61" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -5043,28 +5049,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E62" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -5072,28 +5078,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E63" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -5101,28 +5107,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -5130,28 +5136,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -5159,60 +5165,60 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -5220,28 +5226,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E68" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -5249,28 +5255,28 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -5278,28 +5284,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" t="s">
         <v>210</v>
       </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="H70" t="s">
         <v>211</v>
-      </c>
-      <c r="D70" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" t="s">
-        <v>213</v>
-      </c>
-      <c r="G70" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" t="s">
-        <v>215</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -5307,28 +5313,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E71" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -5336,28 +5342,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E72" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -5365,28 +5371,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E73" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -5394,28 +5400,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E74" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -5423,28 +5429,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
         <v>224</v>
       </c>
-      <c r="B75" t="s">
+      <c r="G75" t="s">
         <v>33</v>
       </c>
-      <c r="C75" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" t="s">
-        <v>227</v>
-      </c>
-      <c r="F75" t="s">
-        <v>228</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -5452,28 +5458,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E76" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -5481,28 +5487,28 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E77" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -5510,28 +5516,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E78" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -5539,28 +5545,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E79" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -5568,28 +5574,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E80" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -5597,28 +5603,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E81" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H81" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -5626,28 +5632,28 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E82" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -5655,28 +5661,28 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E83" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -5684,28 +5690,28 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E84" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -5713,28 +5719,28 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E85" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -5742,28 +5748,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D86" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E86" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H86" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -5771,28 +5777,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D87" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E87" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -5800,28 +5806,28 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E88" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -5829,28 +5835,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E89" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -5858,28 +5864,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
         <v>47</v>
       </c>
-      <c r="C90" t="s">
-        <v>259</v>
-      </c>
-      <c r="D90" t="s">
-        <v>260</v>
-      </c>
-      <c r="E90" t="s">
-        <v>258</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>51</v>
-      </c>
       <c r="H90" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -5887,28 +5893,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>260</v>
+      </c>
+      <c r="H91" t="s">
         <v>261</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" t="s">
-        <v>263</v>
-      </c>
-      <c r="E91" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>264</v>
-      </c>
-      <c r="H91" t="s">
-        <v>265</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -5916,28 +5922,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E92" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -5945,28 +5951,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E93" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -5974,28 +5980,28 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" t="s">
+        <v>269</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
         <v>270</v>
       </c>
-      <c r="B94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="H94" t="s">
         <v>271</v>
-      </c>
-      <c r="D94" t="s">
-        <v>272</v>
-      </c>
-      <c r="E94" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>274</v>
-      </c>
-      <c r="H94" t="s">
-        <v>275</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -6003,28 +6009,28 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E95" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H95" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -6032,28 +6038,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E96" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H96" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -6061,28 +6067,28 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D97" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E97" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H97" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -6090,28 +6096,28 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E98" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H98" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
@@ -6119,28 +6125,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D99" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E99" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H99" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -6148,28 +6154,28 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D100" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E100" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H100" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -6177,28 +6183,28 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E101" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -6206,28 +6212,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E102" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -6235,28 +6241,28 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E103" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -6264,28 +6270,28 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D104" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E104" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H104" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -6293,28 +6299,28 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D105" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E105" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -6322,28 +6328,28 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D106" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E106" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H106" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -6351,28 +6357,28 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E107" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H107" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -6380,28 +6386,28 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E108" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -6409,28 +6415,28 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E109" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -6438,28 +6444,28 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" t="s">
+        <v>305</v>
+      </c>
+      <c r="D110" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" t="s">
+        <v>303</v>
+      </c>
+      <c r="F110" t="s">
         <v>307</v>
       </c>
-      <c r="B110" t="s">
+      <c r="G110" t="s">
         <v>308</v>
       </c>
-      <c r="C110" t="s">
+      <c r="H110" t="s">
         <v>309</v>
-      </c>
-      <c r="D110" t="s">
-        <v>310</v>
-      </c>
-      <c r="E110" t="s">
-        <v>307</v>
-      </c>
-      <c r="F110" t="s">
-        <v>311</v>
-      </c>
-      <c r="G110" t="s">
-        <v>312</v>
-      </c>
-      <c r="H110" t="s">
-        <v>313</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -6467,28 +6473,28 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E111" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="H111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -6496,28 +6502,28 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D112" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E112" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H112" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -6525,28 +6531,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D113" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E113" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H113" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -6554,28 +6560,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H114" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -6583,28 +6589,28 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E115" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="H115" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -6612,28 +6618,28 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D116" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E116" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H116" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -6641,28 +6647,28 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E117" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="H117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -6670,28 +6676,28 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" t="s">
         <v>331</v>
       </c>
-      <c r="B118" t="s">
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
         <v>332</v>
       </c>
-      <c r="C118" t="s">
+      <c r="H118" t="s">
         <v>333</v>
-      </c>
-      <c r="D118" t="s">
-        <v>334</v>
-      </c>
-      <c r="E118" t="s">
-        <v>335</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>336</v>
-      </c>
-      <c r="H118" t="s">
-        <v>337</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -6699,28 +6705,28 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B119" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D119" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E119" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H119" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -6728,28 +6734,28 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D120" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E120" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H120" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -6757,28 +6763,28 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E121" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H121" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -6786,28 +6792,28 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D122" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E122" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="H122" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -6815,28 +6821,28 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C123" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D123" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E123" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H123" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -6844,28 +6850,28 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E124" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H124" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -6873,28 +6879,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D125" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E125" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H125" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
@@ -6902,28 +6908,28 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E126" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H126" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -6931,28 +6937,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D127" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E127" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H127" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -6960,28 +6966,28 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E128" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H128" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -6989,28 +6995,28 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E129" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -7018,28 +7024,28 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E130" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -7047,28 +7053,28 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D131" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E131" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -7076,28 +7082,28 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D132" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E132" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H132" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -7105,28 +7111,28 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E133" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H133" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
@@ -7134,28 +7140,28 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D134" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E134" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -7163,28 +7169,28 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E135" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H135" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
@@ -7192,28 +7198,28 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E136" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H136" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
@@ -7221,28 +7227,28 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D137" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E137" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="H137" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -7250,28 +7256,28 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D138" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E138" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H138" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
@@ -7279,28 +7285,28 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D139" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E139" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="H139" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
@@ -7308,28 +7314,28 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D140" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E140" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -7337,28 +7343,28 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D141" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="E141" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -7366,28 +7372,28 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D142" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E142" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -7395,28 +7401,28 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B143" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C143" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D143" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="E143" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H143" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -7424,28 +7430,28 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D144" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="E144" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H144" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -7453,28 +7459,28 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B145" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D145" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E145" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H145" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -7482,28 +7488,28 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C146" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E146" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="H146" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -7511,28 +7517,28 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D147" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E147" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H147" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -7540,28 +7546,28 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B148" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D148" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E148" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H148" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -7569,28 +7575,28 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D149" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E149" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H149" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -7598,28 +7604,28 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D150" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E150" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H150" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -7627,28 +7633,28 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E151" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H151" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
@@ -7656,28 +7662,28 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C152" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D152" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E152" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H152" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
@@ -7685,28 +7691,28 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C153" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D153" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="E153" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H153" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
@@ -7714,28 +7720,28 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D154" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="E154" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H154" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
@@ -7743,28 +7749,28 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D155" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="E155" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
@@ -7772,28 +7778,28 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D156" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E156" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H156" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
@@ -7801,28 +7807,28 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D157" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E157" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H157" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
@@ -7830,28 +7836,28 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D158" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="E158" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
@@ -7859,28 +7865,28 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D159" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="E159" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
@@ -7888,28 +7894,28 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D160" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E160" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
@@ -7917,28 +7923,28 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D161" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="E161" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="H161" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
@@ -7946,28 +7952,28 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B162" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C162" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D162" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="E162" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H162" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
@@ -7975,28 +7981,28 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
+        <v>427</v>
+      </c>
+      <c r="D163" t="s">
+        <v>838</v>
+      </c>
+      <c r="E163" t="s">
+        <v>839</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
         <v>33</v>
       </c>
-      <c r="C163" t="s">
-        <v>431</v>
-      </c>
-      <c r="D163" t="s">
-        <v>845</v>
-      </c>
-      <c r="E163" t="s">
-        <v>846</v>
-      </c>
-      <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>37</v>
-      </c>
       <c r="H163" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
@@ -8004,28 +8010,28 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>428</v>
+      </c>
+      <c r="B164" t="s">
+        <v>179</v>
+      </c>
+      <c r="C164" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" t="s">
+        <v>430</v>
+      </c>
+      <c r="E164" t="s">
+        <v>431</v>
+      </c>
+      <c r="F164" t="s">
         <v>432</v>
       </c>
-      <c r="B164" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="G164" t="s">
         <v>433</v>
       </c>
-      <c r="D164" t="s">
-        <v>434</v>
-      </c>
-      <c r="E164" t="s">
-        <v>435</v>
-      </c>
-      <c r="F164" t="s">
-        <v>436</v>
-      </c>
-      <c r="G164" t="s">
-        <v>437</v>
-      </c>
       <c r="H164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -8033,28 +8039,28 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D165" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="E165" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H165" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
@@ -8062,28 +8068,28 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D166" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E166" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H166" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
@@ -8091,28 +8097,28 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D167" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E167" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="H167" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
@@ -8120,28 +8126,28 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D168" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E168" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -8149,28 +8155,28 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B169" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D169" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E169" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H169" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
@@ -8178,28 +8184,28 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D170" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E170" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H170" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
@@ -8207,28 +8213,28 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C171" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D171" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="E171" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -8236,28 +8242,28 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D172" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E172" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -8265,28 +8271,28 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E173" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
@@ -8294,28 +8300,28 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D174" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E174" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I174" t="b">
         <v>1</v>
@@ -8323,28 +8329,28 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B175" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D175" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E175" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H175" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
@@ -8352,28 +8358,28 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B176" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C176" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D176" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E176" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H176" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
@@ -8381,28 +8387,28 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D177" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E177" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H177" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
@@ -8410,28 +8416,28 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B178" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C178" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D178" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E178" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H178" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -8439,28 +8445,28 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B179" t="s">
+        <v>461</v>
+      </c>
+      <c r="C179" t="s">
         <v>465</v>
       </c>
-      <c r="C179" t="s">
-        <v>469</v>
-      </c>
       <c r="D179" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E179" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H179" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
@@ -8468,28 +8474,28 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B180" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C180" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D180" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="E180" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H180" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
@@ -8497,28 +8503,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C181" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D181" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="E181" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H181" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
@@ -8526,28 +8532,28 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D182" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E182" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H182" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
@@ -8555,28 +8561,28 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D183" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="E183" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H183" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
@@ -8584,28 +8590,28 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C184" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D184" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E184" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G184" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H184" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -8613,28 +8619,28 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E185" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H185" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
@@ -8642,28 +8648,28 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B186" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C186" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D186" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="E186" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G186" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H186" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
@@ -8671,57 +8677,57 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C187" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D187" t="s">
-        <v>488</v>
+        <v>937</v>
       </c>
       <c r="E187" t="s">
-        <v>486</v>
+        <v>938</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>489</v>
+        <v>939</v>
       </c>
       <c r="H187" t="s">
-        <v>490</v>
+        <v>160</v>
       </c>
       <c r="I187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D188" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E188" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H188" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
@@ -8729,28 +8735,28 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C189" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D189" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E189" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H189" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
@@ -8758,28 +8764,28 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C190" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D190" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="E190" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H190" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
@@ -8787,60 +8793,60 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B191" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C191" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D191" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E191" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H191" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="I191" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J191" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D192" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E192" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H192" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
@@ -8848,28 +8854,28 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D193" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E193" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H193" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -8877,28 +8883,28 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C194" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D194" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E194" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
@@ -8906,28 +8912,28 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C195" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D195" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E195" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
@@ -8935,28 +8941,28 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C196" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D196" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E196" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H196" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
@@ -8964,28 +8970,28 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C197" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D197" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E197" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H197" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
@@ -8993,28 +8999,28 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C198" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D198" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E198" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H198" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
@@ -9022,28 +9028,28 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C199" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D199" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E199" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H199" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
@@ -9051,28 +9057,28 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C200" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D200" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E200" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H200" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -9080,28 +9086,28 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D201" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E201" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H201" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -9109,28 +9115,28 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D202" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E202" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H202" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
@@ -9138,28 +9144,28 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C203" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D203" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E203" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H203" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
@@ -9167,28 +9173,28 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C204" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D204" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E204" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H204" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
@@ -9196,28 +9202,28 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C205" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D205" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E205" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H205" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
@@ -9225,28 +9231,28 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C206" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D206" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E206" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H206" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
@@ -9254,28 +9260,28 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D207" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="E207" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H207" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -9283,28 +9289,28 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B208" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C208" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D208" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E208" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="H208" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
@@ -9312,28 +9318,28 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B209" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C209" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D209" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E209" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H209" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I209" t="b">
         <v>1</v>
@@ -9341,28 +9347,28 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C210" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D210" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E210" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H210" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
@@ -9370,28 +9376,28 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B211" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C211" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D211" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E211" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G211" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -9399,28 +9405,28 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B212" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C212" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D212" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="E212" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G212" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H212" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
@@ -9428,28 +9434,28 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B213" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C213" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D213" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E213" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G213" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H213" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>

--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63B1B0-24E5-4734-A76B-02481A628C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584A898-581D-40F5-90E8-27AE611A3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16354" yWindow="7646" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="939">
   <si>
     <t>University</t>
   </si>
@@ -2792,9 +2792,6 @@
   </si>
   <si>
     <t>University of the West of England</t>
-  </si>
-  <si>
-    <t>UK</t>
   </si>
   <si>
     <t>https://openalex.org/I201448701</t>
@@ -3247,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,19 +3303,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E2" t="s">
         <v>931</v>
-      </c>
-      <c r="E2" t="s">
-        <v>932</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>932</v>
+      </c>
+      <c r="H2" t="s">
         <v>933</v>
-      </c>
-      <c r="H2" t="s">
-        <v>934</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -3454,10 +3451,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>934</v>
+      </c>
+      <c r="E7" t="s">
         <v>935</v>
-      </c>
-      <c r="E7" t="s">
-        <v>936</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -8686,16 +8683,16 @@
         <v>483</v>
       </c>
       <c r="D187" t="s">
+        <v>936</v>
+      </c>
+      <c r="E187" t="s">
         <v>937</v>
-      </c>
-      <c r="E187" t="s">
-        <v>938</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H187" t="s">
         <v>160</v>
@@ -9162,7 +9159,7 @@
         <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>912</v>
+        <v>561</v>
       </c>
       <c r="H203" t="s">
         <v>57</v>
@@ -9182,10 +9179,10 @@
         <v>520</v>
       </c>
       <c r="D204" t="s">
+        <v>912</v>
+      </c>
+      <c r="E204" t="s">
         <v>913</v>
-      </c>
-      <c r="E204" t="s">
-        <v>914</v>
       </c>
       <c r="F204" t="s">
         <v>15</v>
@@ -9211,10 +9208,10 @@
         <v>522</v>
       </c>
       <c r="D205" t="s">
+        <v>914</v>
+      </c>
+      <c r="E205" t="s">
         <v>915</v>
-      </c>
-      <c r="E205" t="s">
-        <v>916</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -9240,10 +9237,10 @@
         <v>524</v>
       </c>
       <c r="D206" t="s">
+        <v>916</v>
+      </c>
+      <c r="E206" t="s">
         <v>917</v>
-      </c>
-      <c r="E206" t="s">
-        <v>918</v>
       </c>
       <c r="F206" t="s">
         <v>15</v>
@@ -9269,10 +9266,10 @@
         <v>526</v>
       </c>
       <c r="D207" t="s">
+        <v>918</v>
+      </c>
+      <c r="E207" t="s">
         <v>919</v>
-      </c>
-      <c r="E207" t="s">
-        <v>920</v>
       </c>
       <c r="F207" t="s">
         <v>15</v>
@@ -9298,10 +9295,10 @@
         <v>528</v>
       </c>
       <c r="D208" t="s">
+        <v>920</v>
+      </c>
+      <c r="E208" t="s">
         <v>921</v>
-      </c>
-      <c r="E208" t="s">
-        <v>922</v>
       </c>
       <c r="F208" t="s">
         <v>15</v>
@@ -9327,10 +9324,10 @@
         <v>530</v>
       </c>
       <c r="D209" t="s">
+        <v>922</v>
+      </c>
+      <c r="E209" t="s">
         <v>923</v>
-      </c>
-      <c r="E209" t="s">
-        <v>924</v>
       </c>
       <c r="F209" t="s">
         <v>15</v>
@@ -9356,10 +9353,10 @@
         <v>532</v>
       </c>
       <c r="D210" t="s">
+        <v>924</v>
+      </c>
+      <c r="E210" t="s">
         <v>925</v>
-      </c>
-      <c r="E210" t="s">
-        <v>926</v>
       </c>
       <c r="F210" t="s">
         <v>15</v>
@@ -9385,10 +9382,10 @@
         <v>534</v>
       </c>
       <c r="D211" t="s">
+        <v>926</v>
+      </c>
+      <c r="E211" t="s">
         <v>927</v>
-      </c>
-      <c r="E211" t="s">
-        <v>928</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -9414,10 +9411,10 @@
         <v>536</v>
       </c>
       <c r="D212" t="s">
+        <v>928</v>
+      </c>
+      <c r="E212" t="s">
         <v>929</v>
-      </c>
-      <c r="E212" t="s">
-        <v>930</v>
       </c>
       <c r="F212" t="s">
         <v>15</v>

--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584A898-581D-40F5-90E8-27AE611A3443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98394331-4805-48B1-AA11-56C584235D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="7646" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="leiden_matching_table" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="940">
   <si>
     <t>University</t>
   </si>
@@ -1894,9 +1894,6 @@
     <t>IR</t>
   </si>
   <si>
-    <t>unable to find a definite match</t>
-  </si>
-  <si>
     <t>https://openalex.org/I197323543</t>
   </si>
   <si>
@@ -2873,6 +2870,12 @@
   </si>
   <si>
     <t>KR</t>
+  </si>
+  <si>
+    <t>https://openalex.org/I4210152006</t>
+  </si>
+  <si>
+    <t>Jilin Agricultural University</t>
   </si>
 </sst>
 </file>
@@ -3244,23 +3247,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF803885-FA68-4431-A905-937B1B2D1406}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.15234375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="31.69140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.15234375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3303,25 +3306,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E2" t="s">
         <v>930</v>
-      </c>
-      <c r="E2" t="s">
-        <v>931</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>931</v>
+      </c>
+      <c r="H2" t="s">
         <v>932</v>
       </c>
-      <c r="H2" t="s">
-        <v>933</v>
-      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3451,10 +3454,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>933</v>
+      </c>
+      <c r="E7" t="s">
         <v>934</v>
-      </c>
-      <c r="E7" t="s">
-        <v>935</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -4472,10 +4475,10 @@
         <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>938</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>939</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -4484,16 +4487,13 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -4533,10 +4533,10 @@
         <v>139</v>
       </c>
       <c r="D44" t="s">
+        <v>612</v>
+      </c>
+      <c r="E44" t="s">
         <v>613</v>
-      </c>
-      <c r="E44" t="s">
-        <v>614</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -4562,16 +4562,16 @@
         <v>142</v>
       </c>
       <c r="D45" t="s">
+        <v>614</v>
+      </c>
+      <c r="E45" t="s">
         <v>615</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
         <v>616</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>617</v>
       </c>
       <c r="H45" t="s">
         <v>141</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -4591,10 +4591,10 @@
         <v>144</v>
       </c>
       <c r="D46" t="s">
+        <v>617</v>
+      </c>
+      <c r="E46" t="s">
         <v>618</v>
-      </c>
-      <c r="E46" t="s">
-        <v>619</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -4620,10 +4620,10 @@
         <v>146</v>
       </c>
       <c r="D47" t="s">
+        <v>619</v>
+      </c>
+      <c r="E47" t="s">
         <v>620</v>
-      </c>
-      <c r="E47" t="s">
-        <v>621</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -4649,10 +4649,10 @@
         <v>148</v>
       </c>
       <c r="D48" t="s">
+        <v>621</v>
+      </c>
+      <c r="E48" t="s">
         <v>622</v>
-      </c>
-      <c r="E48" t="s">
-        <v>623</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -4678,16 +4678,16 @@
         <v>151</v>
       </c>
       <c r="D49" t="s">
+        <v>623</v>
+      </c>
+      <c r="E49" t="s">
         <v>624</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
         <v>625</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>626</v>
       </c>
       <c r="H49" t="s">
         <v>150</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -4707,16 +4707,16 @@
         <v>154</v>
       </c>
       <c r="D50" t="s">
+        <v>626</v>
+      </c>
+      <c r="E50" t="s">
         <v>627</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
         <v>628</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>629</v>
       </c>
       <c r="H50" t="s">
         <v>153</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -4736,10 +4736,10 @@
         <v>156</v>
       </c>
       <c r="D51" t="s">
+        <v>629</v>
+      </c>
+      <c r="E51" t="s">
         <v>630</v>
-      </c>
-      <c r="E51" t="s">
-        <v>631</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -4765,10 +4765,10 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
+        <v>631</v>
+      </c>
+      <c r="E52" t="s">
         <v>632</v>
-      </c>
-      <c r="E52" t="s">
-        <v>633</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -4823,16 +4823,16 @@
         <v>166</v>
       </c>
       <c r="D54" t="s">
+        <v>633</v>
+      </c>
+      <c r="E54" t="s">
         <v>634</v>
       </c>
-      <c r="E54" t="s">
-        <v>635</v>
-      </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H54" t="s">
         <v>150</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -4881,10 +4881,10 @@
         <v>173</v>
       </c>
       <c r="D56" t="s">
+        <v>635</v>
+      </c>
+      <c r="E56" t="s">
         <v>636</v>
-      </c>
-      <c r="E56" t="s">
-        <v>637</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -4910,16 +4910,16 @@
         <v>175</v>
       </c>
       <c r="D57" t="s">
+        <v>847</v>
+      </c>
+      <c r="E57" t="s">
         <v>848</v>
       </c>
-      <c r="E57" t="s">
-        <v>849</v>
-      </c>
       <c r="F57" t="s">
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H57" t="s">
         <v>141</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -4939,10 +4939,10 @@
         <v>177</v>
       </c>
       <c r="D58" t="s">
+        <v>639</v>
+      </c>
+      <c r="E58" t="s">
         <v>640</v>
-      </c>
-      <c r="E58" t="s">
-        <v>641</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -4968,16 +4968,16 @@
         <v>180</v>
       </c>
       <c r="D59" t="s">
+        <v>641</v>
+      </c>
+      <c r="E59" t="s">
         <v>642</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
         <v>643</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>644</v>
       </c>
       <c r="H59" t="s">
         <v>179</v>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -4997,10 +4997,10 @@
         <v>182</v>
       </c>
       <c r="D60" t="s">
+        <v>644</v>
+      </c>
+      <c r="E60" t="s">
         <v>645</v>
-      </c>
-      <c r="E60" t="s">
-        <v>646</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -5026,10 +5026,10 @@
         <v>184</v>
       </c>
       <c r="D61" t="s">
+        <v>646</v>
+      </c>
+      <c r="E61" t="s">
         <v>647</v>
-      </c>
-      <c r="E61" t="s">
-        <v>648</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -5055,10 +5055,10 @@
         <v>186</v>
       </c>
       <c r="D62" t="s">
+        <v>648</v>
+      </c>
+      <c r="E62" t="s">
         <v>649</v>
-      </c>
-      <c r="E62" t="s">
-        <v>650</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -5084,10 +5084,10 @@
         <v>188</v>
       </c>
       <c r="D63" t="s">
+        <v>650</v>
+      </c>
+      <c r="E63" t="s">
         <v>651</v>
-      </c>
-      <c r="E63" t="s">
-        <v>652</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E66" t="s">
         <v>196</v>
@@ -5189,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -5232,10 +5232,10 @@
         <v>202</v>
       </c>
       <c r="D68" t="s">
+        <v>654</v>
+      </c>
+      <c r="E68" t="s">
         <v>655</v>
-      </c>
-      <c r="E68" t="s">
-        <v>656</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -5319,10 +5319,10 @@
         <v>213</v>
       </c>
       <c r="D71" t="s">
+        <v>656</v>
+      </c>
+      <c r="E71" t="s">
         <v>657</v>
-      </c>
-      <c r="E71" t="s">
-        <v>658</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5348,10 +5348,10 @@
         <v>215</v>
       </c>
       <c r="D72" t="s">
+        <v>658</v>
+      </c>
+      <c r="E72" t="s">
         <v>659</v>
-      </c>
-      <c r="E72" t="s">
-        <v>660</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>217</v>
       </c>
       <c r="D73" t="s">
+        <v>660</v>
+      </c>
+      <c r="E73" t="s">
         <v>661</v>
-      </c>
-      <c r="E73" t="s">
-        <v>662</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -5406,10 +5406,10 @@
         <v>219</v>
       </c>
       <c r="D74" t="s">
+        <v>662</v>
+      </c>
+      <c r="E74" t="s">
         <v>663</v>
-      </c>
-      <c r="E74" t="s">
-        <v>664</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -5464,10 +5464,10 @@
         <v>226</v>
       </c>
       <c r="D76" t="s">
+        <v>664</v>
+      </c>
+      <c r="E76" t="s">
         <v>665</v>
-      </c>
-      <c r="E76" t="s">
-        <v>666</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -5493,10 +5493,10 @@
         <v>228</v>
       </c>
       <c r="D77" t="s">
+        <v>666</v>
+      </c>
+      <c r="E77" t="s">
         <v>667</v>
-      </c>
-      <c r="E77" t="s">
-        <v>668</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -5522,10 +5522,10 @@
         <v>230</v>
       </c>
       <c r="D78" t="s">
+        <v>668</v>
+      </c>
+      <c r="E78" t="s">
         <v>669</v>
-      </c>
-      <c r="E78" t="s">
-        <v>670</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -5540,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>232</v>
       </c>
       <c r="D79" t="s">
+        <v>670</v>
+      </c>
+      <c r="E79" t="s">
         <v>671</v>
-      </c>
-      <c r="E79" t="s">
-        <v>672</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -5580,10 +5580,10 @@
         <v>234</v>
       </c>
       <c r="D80" t="s">
+        <v>672</v>
+      </c>
+      <c r="E80" t="s">
         <v>673</v>
-      </c>
-      <c r="E80" t="s">
-        <v>674</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -5609,10 +5609,10 @@
         <v>236</v>
       </c>
       <c r="D81" t="s">
+        <v>674</v>
+      </c>
+      <c r="E81" t="s">
         <v>675</v>
-      </c>
-      <c r="E81" t="s">
-        <v>676</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>237</v>
       </c>
@@ -5638,16 +5638,16 @@
         <v>239</v>
       </c>
       <c r="D82" t="s">
+        <v>676</v>
+      </c>
+      <c r="E82" t="s">
         <v>677</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
         <v>678</v>
-      </c>
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>679</v>
       </c>
       <c r="H82" t="s">
         <v>238</v>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -5667,16 +5667,16 @@
         <v>241</v>
       </c>
       <c r="D83" t="s">
+        <v>679</v>
+      </c>
+      <c r="E83" t="s">
         <v>680</v>
       </c>
-      <c r="E83" t="s">
-        <v>681</v>
-      </c>
       <c r="F83" t="s">
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H83" t="s">
         <v>179</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -5696,10 +5696,10 @@
         <v>243</v>
       </c>
       <c r="D84" t="s">
+        <v>681</v>
+      </c>
+      <c r="E84" t="s">
         <v>682</v>
-      </c>
-      <c r="E84" t="s">
-        <v>683</v>
       </c>
       <c r="F84" t="s">
         <v>15</v>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -5725,10 +5725,10 @@
         <v>245</v>
       </c>
       <c r="D85" t="s">
+        <v>683</v>
+      </c>
+      <c r="E85" t="s">
         <v>684</v>
-      </c>
-      <c r="E85" t="s">
-        <v>685</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>246</v>
       </c>
@@ -5754,10 +5754,10 @@
         <v>247</v>
       </c>
       <c r="D86" t="s">
+        <v>685</v>
+      </c>
+      <c r="E86" t="s">
         <v>686</v>
-      </c>
-      <c r="E86" t="s">
-        <v>687</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>248</v>
       </c>
@@ -5783,10 +5783,10 @@
         <v>249</v>
       </c>
       <c r="D87" t="s">
+        <v>687</v>
+      </c>
+      <c r="E87" t="s">
         <v>688</v>
-      </c>
-      <c r="E87" t="s">
-        <v>689</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -5812,10 +5812,10 @@
         <v>251</v>
       </c>
       <c r="D88" t="s">
+        <v>689</v>
+      </c>
+      <c r="E88" t="s">
         <v>690</v>
-      </c>
-      <c r="E88" t="s">
-        <v>691</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>252</v>
       </c>
@@ -5841,10 +5841,10 @@
         <v>253</v>
       </c>
       <c r="D89" t="s">
+        <v>691</v>
+      </c>
+      <c r="E89" t="s">
         <v>692</v>
-      </c>
-      <c r="E89" t="s">
-        <v>693</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>257</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>262</v>
       </c>
@@ -5928,10 +5928,10 @@
         <v>263</v>
       </c>
       <c r="D92" t="s">
+        <v>693</v>
+      </c>
+      <c r="E92" t="s">
         <v>694</v>
-      </c>
-      <c r="E92" t="s">
-        <v>695</v>
       </c>
       <c r="F92" t="s">
         <v>15</v>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>264</v>
       </c>
@@ -5957,10 +5957,10 @@
         <v>265</v>
       </c>
       <c r="D93" t="s">
+        <v>695</v>
+      </c>
+      <c r="E93" t="s">
         <v>696</v>
-      </c>
-      <c r="E93" t="s">
-        <v>697</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>266</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -6015,16 +6015,16 @@
         <v>274</v>
       </c>
       <c r="D95" t="s">
+        <v>697</v>
+      </c>
+      <c r="E95" t="s">
         <v>698</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
         <v>699</v>
-      </c>
-      <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>700</v>
       </c>
       <c r="H95" t="s">
         <v>273</v>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>275</v>
       </c>
@@ -6044,10 +6044,10 @@
         <v>276</v>
       </c>
       <c r="D96" t="s">
+        <v>700</v>
+      </c>
+      <c r="E96" t="s">
         <v>701</v>
-      </c>
-      <c r="E96" t="s">
-        <v>702</v>
       </c>
       <c r="F96" t="s">
         <v>15</v>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>277</v>
       </c>
@@ -6073,10 +6073,10 @@
         <v>278</v>
       </c>
       <c r="D97" t="s">
+        <v>702</v>
+      </c>
+      <c r="E97" t="s">
         <v>703</v>
-      </c>
-      <c r="E97" t="s">
-        <v>704</v>
       </c>
       <c r="F97" t="s">
         <v>15</v>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>279</v>
       </c>
@@ -6102,10 +6102,10 @@
         <v>280</v>
       </c>
       <c r="D98" t="s">
+        <v>704</v>
+      </c>
+      <c r="E98" t="s">
         <v>705</v>
-      </c>
-      <c r="E98" t="s">
-        <v>706</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -6131,10 +6131,10 @@
         <v>282</v>
       </c>
       <c r="D99" t="s">
+        <v>706</v>
+      </c>
+      <c r="E99" t="s">
         <v>707</v>
-      </c>
-      <c r="E99" t="s">
-        <v>708</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -6160,10 +6160,10 @@
         <v>284</v>
       </c>
       <c r="D100" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" t="s">
         <v>709</v>
-      </c>
-      <c r="E100" t="s">
-        <v>710</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>285</v>
       </c>
@@ -6189,10 +6189,10 @@
         <v>286</v>
       </c>
       <c r="D101" t="s">
+        <v>710</v>
+      </c>
+      <c r="E101" t="s">
         <v>711</v>
-      </c>
-      <c r="E101" t="s">
-        <v>712</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -6218,10 +6218,10 @@
         <v>288</v>
       </c>
       <c r="D102" t="s">
+        <v>712</v>
+      </c>
+      <c r="E102" t="s">
         <v>713</v>
-      </c>
-      <c r="E102" t="s">
-        <v>714</v>
       </c>
       <c r="F102" t="s">
         <v>15</v>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>289</v>
       </c>
@@ -6247,10 +6247,10 @@
         <v>290</v>
       </c>
       <c r="D103" t="s">
+        <v>714</v>
+      </c>
+      <c r="E103" t="s">
         <v>715</v>
-      </c>
-      <c r="E103" t="s">
-        <v>716</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>291</v>
       </c>
@@ -6276,16 +6276,16 @@
         <v>292</v>
       </c>
       <c r="D104" t="s">
+        <v>716</v>
+      </c>
+      <c r="E104" t="s">
         <v>717</v>
       </c>
-      <c r="E104" t="s">
-        <v>718</v>
-      </c>
       <c r="F104" t="s">
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H104" t="s">
         <v>273</v>
@@ -6294,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>293</v>
       </c>
@@ -6305,10 +6305,10 @@
         <v>294</v>
       </c>
       <c r="D105" t="s">
+        <v>718</v>
+      </c>
+      <c r="E105" t="s">
         <v>719</v>
-      </c>
-      <c r="E105" t="s">
-        <v>720</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>295</v>
       </c>
@@ -6334,10 +6334,10 @@
         <v>296</v>
       </c>
       <c r="D106" t="s">
+        <v>720</v>
+      </c>
+      <c r="E106" t="s">
         <v>721</v>
-      </c>
-      <c r="E106" t="s">
-        <v>722</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>297</v>
       </c>
@@ -6363,10 +6363,10 @@
         <v>298</v>
       </c>
       <c r="D107" t="s">
+        <v>722</v>
+      </c>
+      <c r="E107" t="s">
         <v>723</v>
-      </c>
-      <c r="E107" t="s">
-        <v>724</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>299</v>
       </c>
@@ -6392,10 +6392,10 @@
         <v>300</v>
       </c>
       <c r="D108" t="s">
+        <v>724</v>
+      </c>
+      <c r="E108" t="s">
         <v>725</v>
-      </c>
-      <c r="E108" t="s">
-        <v>726</v>
       </c>
       <c r="F108" t="s">
         <v>15</v>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>301</v>
       </c>
@@ -6421,10 +6421,10 @@
         <v>302</v>
       </c>
       <c r="D109" t="s">
+        <v>726</v>
+      </c>
+      <c r="E109" t="s">
         <v>727</v>
-      </c>
-      <c r="E109" t="s">
-        <v>728</v>
       </c>
       <c r="F109" t="s">
         <v>15</v>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>310</v>
       </c>
@@ -6479,16 +6479,16 @@
         <v>312</v>
       </c>
       <c r="D111" t="s">
+        <v>728</v>
+      </c>
+      <c r="E111" t="s">
         <v>729</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
         <v>730</v>
-      </c>
-      <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>731</v>
       </c>
       <c r="H111" t="s">
         <v>311</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>313</v>
       </c>
@@ -6508,10 +6508,10 @@
         <v>314</v>
       </c>
       <c r="D112" t="s">
+        <v>731</v>
+      </c>
+      <c r="E112" t="s">
         <v>732</v>
-      </c>
-      <c r="E112" t="s">
-        <v>733</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>315</v>
       </c>
@@ -6537,16 +6537,16 @@
         <v>316</v>
       </c>
       <c r="D113" t="s">
+        <v>733</v>
+      </c>
+      <c r="E113" t="s">
         <v>734</v>
       </c>
-      <c r="E113" t="s">
-        <v>735</v>
-      </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H113" t="s">
         <v>179</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>317</v>
       </c>
@@ -6566,16 +6566,16 @@
         <v>318</v>
       </c>
       <c r="D114" t="s">
+        <v>735</v>
+      </c>
+      <c r="E114" t="s">
         <v>736</v>
       </c>
-      <c r="E114" t="s">
-        <v>737</v>
-      </c>
       <c r="F114" t="s">
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H114" t="s">
         <v>179</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>319</v>
       </c>
@@ -6595,16 +6595,16 @@
         <v>321</v>
       </c>
       <c r="D115" t="s">
+        <v>737</v>
+      </c>
+      <c r="E115" t="s">
         <v>738</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
         <v>739</v>
-      </c>
-      <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>740</v>
       </c>
       <c r="H115" t="s">
         <v>320</v>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>322</v>
       </c>
@@ -6624,16 +6624,16 @@
         <v>323</v>
       </c>
       <c r="D116" t="s">
+        <v>740</v>
+      </c>
+      <c r="E116" t="s">
         <v>741</v>
       </c>
-      <c r="E116" t="s">
-        <v>742</v>
-      </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H116" t="s">
         <v>179</v>
@@ -6642,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>324</v>
       </c>
@@ -6653,16 +6653,16 @@
         <v>326</v>
       </c>
       <c r="D117" t="s">
+        <v>742</v>
+      </c>
+      <c r="E117" t="s">
         <v>743</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
         <v>744</v>
-      </c>
-      <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>745</v>
       </c>
       <c r="H117" t="s">
         <v>325</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>334</v>
       </c>
@@ -6711,10 +6711,10 @@
         <v>335</v>
       </c>
       <c r="D119" t="s">
+        <v>745</v>
+      </c>
+      <c r="E119" t="s">
         <v>746</v>
-      </c>
-      <c r="E119" t="s">
-        <v>747</v>
       </c>
       <c r="F119" t="s">
         <v>15</v>
@@ -6729,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>336</v>
       </c>
@@ -6740,10 +6740,10 @@
         <v>338</v>
       </c>
       <c r="D120" t="s">
+        <v>747</v>
+      </c>
+      <c r="E120" t="s">
         <v>748</v>
-      </c>
-      <c r="E120" t="s">
-        <v>749</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>339</v>
       </c>
@@ -6769,10 +6769,10 @@
         <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E121" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>341</v>
       </c>
@@ -6798,16 +6798,16 @@
         <v>343</v>
       </c>
       <c r="D122" t="s">
+        <v>751</v>
+      </c>
+      <c r="E122" t="s">
         <v>752</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
         <v>753</v>
-      </c>
-      <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>754</v>
       </c>
       <c r="H122" t="s">
         <v>342</v>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>344</v>
       </c>
@@ -6827,10 +6827,10 @@
         <v>345</v>
       </c>
       <c r="D123" t="s">
+        <v>754</v>
+      </c>
+      <c r="E123" t="s">
         <v>755</v>
-      </c>
-      <c r="E123" t="s">
-        <v>756</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>346</v>
       </c>
@@ -6856,10 +6856,10 @@
         <v>347</v>
       </c>
       <c r="D124" t="s">
+        <v>756</v>
+      </c>
+      <c r="E124" t="s">
         <v>757</v>
-      </c>
-      <c r="E124" t="s">
-        <v>758</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>348</v>
       </c>
@@ -6885,10 +6885,10 @@
         <v>349</v>
       </c>
       <c r="D125" t="s">
+        <v>758</v>
+      </c>
+      <c r="E125" t="s">
         <v>759</v>
-      </c>
-      <c r="E125" t="s">
-        <v>760</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>350</v>
       </c>
@@ -6914,10 +6914,10 @@
         <v>351</v>
       </c>
       <c r="D126" t="s">
+        <v>760</v>
+      </c>
+      <c r="E126" t="s">
         <v>761</v>
-      </c>
-      <c r="E126" t="s">
-        <v>762</v>
       </c>
       <c r="F126" t="s">
         <v>15</v>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>352</v>
       </c>
@@ -6943,10 +6943,10 @@
         <v>353</v>
       </c>
       <c r="D127" t="s">
+        <v>762</v>
+      </c>
+      <c r="E127" t="s">
         <v>763</v>
-      </c>
-      <c r="E127" t="s">
-        <v>764</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
@@ -6961,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>354</v>
       </c>
@@ -6972,10 +6972,10 @@
         <v>355</v>
       </c>
       <c r="D128" t="s">
+        <v>764</v>
+      </c>
+      <c r="E128" t="s">
         <v>765</v>
-      </c>
-      <c r="E128" t="s">
-        <v>766</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>356</v>
       </c>
@@ -7001,10 +7001,10 @@
         <v>357</v>
       </c>
       <c r="D129" t="s">
+        <v>766</v>
+      </c>
+      <c r="E129" t="s">
         <v>767</v>
-      </c>
-      <c r="E129" t="s">
-        <v>768</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>358</v>
       </c>
@@ -7030,10 +7030,10 @@
         <v>359</v>
       </c>
       <c r="D130" t="s">
+        <v>768</v>
+      </c>
+      <c r="E130" t="s">
         <v>769</v>
-      </c>
-      <c r="E130" t="s">
-        <v>770</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>360</v>
       </c>
@@ -7059,10 +7059,10 @@
         <v>361</v>
       </c>
       <c r="D131" t="s">
+        <v>770</v>
+      </c>
+      <c r="E131" t="s">
         <v>771</v>
-      </c>
-      <c r="E131" t="s">
-        <v>772</v>
       </c>
       <c r="F131" t="s">
         <v>15</v>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>362</v>
       </c>
@@ -7088,16 +7088,16 @@
         <v>363</v>
       </c>
       <c r="D132" t="s">
+        <v>772</v>
+      </c>
+      <c r="E132" t="s">
         <v>773</v>
       </c>
-      <c r="E132" t="s">
-        <v>774</v>
-      </c>
       <c r="F132" t="s">
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H132" t="s">
         <v>179</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>364</v>
       </c>
@@ -7117,16 +7117,16 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
+        <v>774</v>
+      </c>
+      <c r="E133" t="s">
         <v>775</v>
       </c>
-      <c r="E133" t="s">
-        <v>776</v>
-      </c>
       <c r="F133" t="s">
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H133" t="s">
         <v>179</v>
@@ -7135,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>366</v>
       </c>
@@ -7146,16 +7146,16 @@
         <v>367</v>
       </c>
       <c r="D134" t="s">
+        <v>776</v>
+      </c>
+      <c r="E134" t="s">
         <v>777</v>
       </c>
-      <c r="E134" t="s">
-        <v>778</v>
-      </c>
       <c r="F134" t="s">
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H134" t="s">
         <v>179</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>368</v>
       </c>
@@ -7175,10 +7175,10 @@
         <v>369</v>
       </c>
       <c r="D135" t="s">
+        <v>778</v>
+      </c>
+      <c r="E135" t="s">
         <v>779</v>
-      </c>
-      <c r="E135" t="s">
-        <v>780</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>370</v>
       </c>
@@ -7204,16 +7204,16 @@
         <v>371</v>
       </c>
       <c r="D136" t="s">
+        <v>780</v>
+      </c>
+      <c r="E136" t="s">
         <v>781</v>
       </c>
-      <c r="E136" t="s">
-        <v>782</v>
-      </c>
       <c r="F136" t="s">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H136" t="s">
         <v>179</v>
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>372</v>
       </c>
@@ -7233,10 +7233,10 @@
         <v>373</v>
       </c>
       <c r="D137" t="s">
+        <v>782</v>
+      </c>
+      <c r="E137" t="s">
         <v>783</v>
-      </c>
-      <c r="E137" t="s">
-        <v>784</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>374</v>
       </c>
@@ -7262,10 +7262,10 @@
         <v>375</v>
       </c>
       <c r="D138" t="s">
+        <v>784</v>
+      </c>
+      <c r="E138" t="s">
         <v>785</v>
-      </c>
-      <c r="E138" t="s">
-        <v>786</v>
       </c>
       <c r="F138" t="s">
         <v>15</v>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>376</v>
       </c>
@@ -7291,16 +7291,16 @@
         <v>377</v>
       </c>
       <c r="D139" t="s">
+        <v>786</v>
+      </c>
+      <c r="E139" t="s">
         <v>787</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
         <v>788</v>
-      </c>
-      <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>789</v>
       </c>
       <c r="H139" t="s">
         <v>71</v>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>378</v>
       </c>
@@ -7320,10 +7320,10 @@
         <v>379</v>
       </c>
       <c r="D140" t="s">
+        <v>789</v>
+      </c>
+      <c r="E140" t="s">
         <v>790</v>
-      </c>
-      <c r="E140" t="s">
-        <v>791</v>
       </c>
       <c r="F140" t="s">
         <v>15</v>
@@ -7338,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>380</v>
       </c>
@@ -7349,10 +7349,10 @@
         <v>381</v>
       </c>
       <c r="D141" t="s">
+        <v>791</v>
+      </c>
+      <c r="E141" t="s">
         <v>792</v>
-      </c>
-      <c r="E141" t="s">
-        <v>793</v>
       </c>
       <c r="F141" t="s">
         <v>15</v>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>382</v>
       </c>
@@ -7378,10 +7378,10 @@
         <v>383</v>
       </c>
       <c r="D142" t="s">
+        <v>793</v>
+      </c>
+      <c r="E142" t="s">
         <v>794</v>
-      </c>
-      <c r="E142" t="s">
-        <v>795</v>
       </c>
       <c r="F142" t="s">
         <v>15</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>384</v>
       </c>
@@ -7407,16 +7407,16 @@
         <v>386</v>
       </c>
       <c r="D143" t="s">
+        <v>795</v>
+      </c>
+      <c r="E143" t="s">
         <v>796</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
         <v>797</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>798</v>
       </c>
       <c r="H143" t="s">
         <v>385</v>
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>387</v>
       </c>
@@ -7436,10 +7436,10 @@
         <v>388</v>
       </c>
       <c r="D144" t="s">
+        <v>798</v>
+      </c>
+      <c r="E144" t="s">
         <v>799</v>
-      </c>
-      <c r="E144" t="s">
-        <v>800</v>
       </c>
       <c r="F144" t="s">
         <v>15</v>
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>389</v>
       </c>
@@ -7465,16 +7465,16 @@
         <v>391</v>
       </c>
       <c r="D145" t="s">
+        <v>800</v>
+      </c>
+      <c r="E145" t="s">
         <v>801</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
         <v>802</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>803</v>
       </c>
       <c r="H145" t="s">
         <v>390</v>
@@ -7483,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>392</v>
       </c>
@@ -7494,16 +7494,16 @@
         <v>393</v>
       </c>
       <c r="D146" t="s">
+        <v>803</v>
+      </c>
+      <c r="E146" t="s">
         <v>804</v>
       </c>
-      <c r="E146" t="s">
-        <v>805</v>
-      </c>
       <c r="F146" t="s">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H146" t="s">
         <v>71</v>
@@ -7512,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>394</v>
       </c>
@@ -7523,10 +7523,10 @@
         <v>395</v>
       </c>
       <c r="D147" t="s">
+        <v>805</v>
+      </c>
+      <c r="E147" t="s">
         <v>806</v>
-      </c>
-      <c r="E147" t="s">
-        <v>807</v>
       </c>
       <c r="F147" t="s">
         <v>15</v>
@@ -7541,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>396</v>
       </c>
@@ -7552,10 +7552,10 @@
         <v>397</v>
       </c>
       <c r="D148" t="s">
+        <v>807</v>
+      </c>
+      <c r="E148" t="s">
         <v>808</v>
-      </c>
-      <c r="E148" t="s">
-        <v>809</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>398</v>
       </c>
@@ -7581,10 +7581,10 @@
         <v>399</v>
       </c>
       <c r="D149" t="s">
+        <v>809</v>
+      </c>
+      <c r="E149" t="s">
         <v>810</v>
-      </c>
-      <c r="E149" t="s">
-        <v>811</v>
       </c>
       <c r="F149" t="s">
         <v>15</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>400</v>
       </c>
@@ -7610,10 +7610,10 @@
         <v>401</v>
       </c>
       <c r="D150" t="s">
+        <v>811</v>
+      </c>
+      <c r="E150" t="s">
         <v>812</v>
-      </c>
-      <c r="E150" t="s">
-        <v>813</v>
       </c>
       <c r="F150" t="s">
         <v>15</v>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>402</v>
       </c>
@@ -7639,10 +7639,10 @@
         <v>403</v>
       </c>
       <c r="D151" t="s">
+        <v>813</v>
+      </c>
+      <c r="E151" t="s">
         <v>814</v>
-      </c>
-      <c r="E151" t="s">
-        <v>815</v>
       </c>
       <c r="F151" t="s">
         <v>15</v>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>404</v>
       </c>
@@ -7668,10 +7668,10 @@
         <v>405</v>
       </c>
       <c r="D152" t="s">
+        <v>815</v>
+      </c>
+      <c r="E152" t="s">
         <v>816</v>
-      </c>
-      <c r="E152" t="s">
-        <v>817</v>
       </c>
       <c r="F152" t="s">
         <v>15</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>406</v>
       </c>
@@ -7697,10 +7697,10 @@
         <v>407</v>
       </c>
       <c r="D153" t="s">
+        <v>817</v>
+      </c>
+      <c r="E153" t="s">
         <v>818</v>
-      </c>
-      <c r="E153" t="s">
-        <v>819</v>
       </c>
       <c r="F153" t="s">
         <v>15</v>
@@ -7715,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>408</v>
       </c>
@@ -7726,10 +7726,10 @@
         <v>409</v>
       </c>
       <c r="D154" t="s">
+        <v>819</v>
+      </c>
+      <c r="E154" t="s">
         <v>820</v>
-      </c>
-      <c r="E154" t="s">
-        <v>821</v>
       </c>
       <c r="F154" t="s">
         <v>15</v>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>410</v>
       </c>
@@ -7755,10 +7755,10 @@
         <v>411</v>
       </c>
       <c r="D155" t="s">
+        <v>821</v>
+      </c>
+      <c r="E155" t="s">
         <v>822</v>
-      </c>
-      <c r="E155" t="s">
-        <v>823</v>
       </c>
       <c r="F155" t="s">
         <v>15</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -7784,10 +7784,10 @@
         <v>413</v>
       </c>
       <c r="D156" t="s">
+        <v>823</v>
+      </c>
+      <c r="E156" t="s">
         <v>824</v>
-      </c>
-      <c r="E156" t="s">
-        <v>825</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -7813,10 +7813,10 @@
         <v>415</v>
       </c>
       <c r="D157" t="s">
+        <v>825</v>
+      </c>
+      <c r="E157" t="s">
         <v>826</v>
-      </c>
-      <c r="E157" t="s">
-        <v>827</v>
       </c>
       <c r="F157" t="s">
         <v>15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>416</v>
       </c>
@@ -7842,10 +7842,10 @@
         <v>417</v>
       </c>
       <c r="D158" t="s">
+        <v>827</v>
+      </c>
+      <c r="E158" t="s">
         <v>828</v>
-      </c>
-      <c r="E158" t="s">
-        <v>829</v>
       </c>
       <c r="F158" t="s">
         <v>15</v>
@@ -7860,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -7871,10 +7871,10 @@
         <v>419</v>
       </c>
       <c r="D159" t="s">
+        <v>829</v>
+      </c>
+      <c r="E159" t="s">
         <v>830</v>
-      </c>
-      <c r="E159" t="s">
-        <v>831</v>
       </c>
       <c r="F159" t="s">
         <v>15</v>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>420</v>
       </c>
@@ -7900,10 +7900,10 @@
         <v>421</v>
       </c>
       <c r="D160" t="s">
+        <v>831</v>
+      </c>
+      <c r="E160" t="s">
         <v>832</v>
-      </c>
-      <c r="E160" t="s">
-        <v>833</v>
       </c>
       <c r="F160" t="s">
         <v>15</v>
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>422</v>
       </c>
@@ -7929,10 +7929,10 @@
         <v>423</v>
       </c>
       <c r="D161" t="s">
+        <v>833</v>
+      </c>
+      <c r="E161" t="s">
         <v>834</v>
-      </c>
-      <c r="E161" t="s">
-        <v>835</v>
       </c>
       <c r="F161" t="s">
         <v>15</v>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>424</v>
       </c>
@@ -7958,10 +7958,10 @@
         <v>425</v>
       </c>
       <c r="D162" t="s">
+        <v>835</v>
+      </c>
+      <c r="E162" t="s">
         <v>836</v>
-      </c>
-      <c r="E162" t="s">
-        <v>837</v>
       </c>
       <c r="F162" t="s">
         <v>15</v>
@@ -7976,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>426</v>
       </c>
@@ -7987,10 +7987,10 @@
         <v>427</v>
       </c>
       <c r="D163" t="s">
+        <v>837</v>
+      </c>
+      <c r="E163" t="s">
         <v>838</v>
-      </c>
-      <c r="E163" t="s">
-        <v>839</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>428</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>434</v>
       </c>
@@ -8045,10 +8045,10 @@
         <v>435</v>
       </c>
       <c r="D165" t="s">
+        <v>839</v>
+      </c>
+      <c r="E165" t="s">
         <v>840</v>
-      </c>
-      <c r="E165" t="s">
-        <v>841</v>
       </c>
       <c r="F165" t="s">
         <v>15</v>
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -8074,10 +8074,10 @@
         <v>437</v>
       </c>
       <c r="D166" t="s">
+        <v>841</v>
+      </c>
+      <c r="E166" t="s">
         <v>842</v>
-      </c>
-      <c r="E166" t="s">
-        <v>843</v>
       </c>
       <c r="F166" t="s">
         <v>15</v>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>438</v>
       </c>
@@ -8103,10 +8103,10 @@
         <v>439</v>
       </c>
       <c r="D167" t="s">
+        <v>843</v>
+      </c>
+      <c r="E167" t="s">
         <v>844</v>
-      </c>
-      <c r="E167" t="s">
-        <v>845</v>
       </c>
       <c r="F167" t="s">
         <v>15</v>
@@ -8121,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>440</v>
       </c>
@@ -8132,10 +8132,10 @@
         <v>441</v>
       </c>
       <c r="D168" t="s">
+        <v>845</v>
+      </c>
+      <c r="E168" t="s">
         <v>846</v>
-      </c>
-      <c r="E168" t="s">
-        <v>847</v>
       </c>
       <c r="F168" t="s">
         <v>15</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>442</v>
       </c>
@@ -8161,16 +8161,16 @@
         <v>443</v>
       </c>
       <c r="D169" t="s">
+        <v>637</v>
+      </c>
+      <c r="E169" t="s">
         <v>638</v>
       </c>
-      <c r="E169" t="s">
-        <v>639</v>
-      </c>
       <c r="F169" t="s">
         <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H169" t="s">
         <v>141</v>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>444</v>
       </c>
@@ -8190,10 +8190,10 @@
         <v>445</v>
       </c>
       <c r="D170" t="s">
+        <v>849</v>
+      </c>
+      <c r="E170" t="s">
         <v>850</v>
-      </c>
-      <c r="E170" t="s">
-        <v>851</v>
       </c>
       <c r="F170" t="s">
         <v>15</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>446</v>
       </c>
@@ -8219,10 +8219,10 @@
         <v>447</v>
       </c>
       <c r="D171" t="s">
+        <v>851</v>
+      </c>
+      <c r="E171" t="s">
         <v>852</v>
-      </c>
-      <c r="E171" t="s">
-        <v>853</v>
       </c>
       <c r="F171" t="s">
         <v>15</v>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>448</v>
       </c>
@@ -8248,10 +8248,10 @@
         <v>449</v>
       </c>
       <c r="D172" t="s">
+        <v>853</v>
+      </c>
+      <c r="E172" t="s">
         <v>854</v>
-      </c>
-      <c r="E172" t="s">
-        <v>855</v>
       </c>
       <c r="F172" t="s">
         <v>15</v>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>450</v>
       </c>
@@ -8277,10 +8277,10 @@
         <v>451</v>
       </c>
       <c r="D173" t="s">
+        <v>855</v>
+      </c>
+      <c r="E173" t="s">
         <v>856</v>
-      </c>
-      <c r="E173" t="s">
-        <v>857</v>
       </c>
       <c r="F173" t="s">
         <v>15</v>
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>452</v>
       </c>
@@ -8306,10 +8306,10 @@
         <v>453</v>
       </c>
       <c r="D174" t="s">
+        <v>857</v>
+      </c>
+      <c r="E174" t="s">
         <v>858</v>
-      </c>
-      <c r="E174" t="s">
-        <v>859</v>
       </c>
       <c r="F174" t="s">
         <v>15</v>
@@ -8324,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>454</v>
       </c>
@@ -8335,10 +8335,10 @@
         <v>455</v>
       </c>
       <c r="D175" t="s">
+        <v>859</v>
+      </c>
+      <c r="E175" t="s">
         <v>860</v>
-      </c>
-      <c r="E175" t="s">
-        <v>861</v>
       </c>
       <c r="F175" t="s">
         <v>15</v>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>456</v>
       </c>
@@ -8364,16 +8364,16 @@
         <v>457</v>
       </c>
       <c r="D176" t="s">
+        <v>861</v>
+      </c>
+      <c r="E176" t="s">
         <v>862</v>
       </c>
-      <c r="E176" t="s">
-        <v>863</v>
-      </c>
       <c r="F176" t="s">
         <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H176" t="s">
         <v>141</v>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>458</v>
       </c>
@@ -8393,10 +8393,10 @@
         <v>459</v>
       </c>
       <c r="D177" t="s">
+        <v>863</v>
+      </c>
+      <c r="E177" t="s">
         <v>864</v>
-      </c>
-      <c r="E177" t="s">
-        <v>865</v>
       </c>
       <c r="F177" t="s">
         <v>15</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>460</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>464</v>
       </c>
@@ -8451,16 +8451,16 @@
         <v>465</v>
       </c>
       <c r="D179" t="s">
+        <v>865</v>
+      </c>
+      <c r="E179" t="s">
         <v>866</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
         <v>867</v>
-      </c>
-      <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>868</v>
       </c>
       <c r="H179" t="s">
         <v>461</v>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>466</v>
       </c>
@@ -8480,16 +8480,16 @@
         <v>467</v>
       </c>
       <c r="D180" t="s">
+        <v>868</v>
+      </c>
+      <c r="E180" t="s">
         <v>869</v>
       </c>
-      <c r="E180" t="s">
-        <v>870</v>
-      </c>
       <c r="F180" t="s">
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H180" t="s">
         <v>461</v>
@@ -8498,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>468</v>
       </c>
@@ -8509,10 +8509,10 @@
         <v>469</v>
       </c>
       <c r="D181" t="s">
+        <v>870</v>
+      </c>
+      <c r="E181" t="s">
         <v>871</v>
-      </c>
-      <c r="E181" t="s">
-        <v>872</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>470</v>
       </c>
@@ -8538,10 +8538,10 @@
         <v>471</v>
       </c>
       <c r="D182" t="s">
+        <v>872</v>
+      </c>
+      <c r="E182" t="s">
         <v>873</v>
-      </c>
-      <c r="E182" t="s">
-        <v>874</v>
       </c>
       <c r="F182" t="s">
         <v>15</v>
@@ -8556,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>472</v>
       </c>
@@ -8567,10 +8567,10 @@
         <v>473</v>
       </c>
       <c r="D183" t="s">
+        <v>874</v>
+      </c>
+      <c r="E183" t="s">
         <v>875</v>
-      </c>
-      <c r="E183" t="s">
-        <v>876</v>
       </c>
       <c r="F183" t="s">
         <v>15</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>474</v>
       </c>
@@ -8596,10 +8596,10 @@
         <v>475</v>
       </c>
       <c r="D184" t="s">
+        <v>876</v>
+      </c>
+      <c r="E184" t="s">
         <v>877</v>
-      </c>
-      <c r="E184" t="s">
-        <v>878</v>
       </c>
       <c r="F184" t="s">
         <v>15</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>476</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>480</v>
       </c>
@@ -8654,10 +8654,10 @@
         <v>481</v>
       </c>
       <c r="D186" t="s">
+        <v>878</v>
+      </c>
+      <c r="E186" t="s">
         <v>879</v>
-      </c>
-      <c r="E186" t="s">
-        <v>880</v>
       </c>
       <c r="F186" t="s">
         <v>15</v>
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>482</v>
       </c>
@@ -8683,16 +8683,16 @@
         <v>483</v>
       </c>
       <c r="D187" t="s">
+        <v>935</v>
+      </c>
+      <c r="E187" t="s">
         <v>936</v>
-      </c>
-      <c r="E187" t="s">
-        <v>937</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H187" t="s">
         <v>160</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>484</v>
       </c>
@@ -8712,10 +8712,10 @@
         <v>485</v>
       </c>
       <c r="D188" t="s">
+        <v>880</v>
+      </c>
+      <c r="E188" t="s">
         <v>881</v>
-      </c>
-      <c r="E188" t="s">
-        <v>882</v>
       </c>
       <c r="F188" t="s">
         <v>15</v>
@@ -8730,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>486</v>
       </c>
@@ -8741,10 +8741,10 @@
         <v>487</v>
       </c>
       <c r="D189" t="s">
+        <v>882</v>
+      </c>
+      <c r="E189" t="s">
         <v>883</v>
-      </c>
-      <c r="E189" t="s">
-        <v>884</v>
       </c>
       <c r="F189" t="s">
         <v>15</v>
@@ -8759,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>488</v>
       </c>
@@ -8770,10 +8770,10 @@
         <v>489</v>
       </c>
       <c r="D190" t="s">
+        <v>884</v>
+      </c>
+      <c r="E190" t="s">
         <v>885</v>
-      </c>
-      <c r="E190" t="s">
-        <v>886</v>
       </c>
       <c r="F190" t="s">
         <v>15</v>
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>490</v>
       </c>
@@ -8817,10 +8817,10 @@
         <v>15</v>
       </c>
       <c r="J191" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>495</v>
       </c>
@@ -8831,10 +8831,10 @@
         <v>496</v>
       </c>
       <c r="D192" t="s">
+        <v>887</v>
+      </c>
+      <c r="E192" t="s">
         <v>888</v>
-      </c>
-      <c r="E192" t="s">
-        <v>889</v>
       </c>
       <c r="F192" t="s">
         <v>15</v>
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>497</v>
       </c>
@@ -8860,10 +8860,10 @@
         <v>498</v>
       </c>
       <c r="D193" t="s">
+        <v>889</v>
+      </c>
+      <c r="E193" t="s">
         <v>890</v>
-      </c>
-      <c r="E193" t="s">
-        <v>891</v>
       </c>
       <c r="F193" t="s">
         <v>15</v>
@@ -8878,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>499</v>
       </c>
@@ -8889,10 +8889,10 @@
         <v>500</v>
       </c>
       <c r="D194" t="s">
+        <v>891</v>
+      </c>
+      <c r="E194" t="s">
         <v>892</v>
-      </c>
-      <c r="E194" t="s">
-        <v>893</v>
       </c>
       <c r="F194" t="s">
         <v>15</v>
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>501</v>
       </c>
@@ -8918,10 +8918,10 @@
         <v>502</v>
       </c>
       <c r="D195" t="s">
+        <v>893</v>
+      </c>
+      <c r="E195" t="s">
         <v>894</v>
-      </c>
-      <c r="E195" t="s">
-        <v>895</v>
       </c>
       <c r="F195" t="s">
         <v>15</v>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>503</v>
       </c>
@@ -8947,10 +8947,10 @@
         <v>504</v>
       </c>
       <c r="D196" t="s">
+        <v>895</v>
+      </c>
+      <c r="E196" t="s">
         <v>896</v>
-      </c>
-      <c r="E196" t="s">
-        <v>897</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -8965,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>505</v>
       </c>
@@ -8976,10 +8976,10 @@
         <v>506</v>
       </c>
       <c r="D197" t="s">
+        <v>897</v>
+      </c>
+      <c r="E197" t="s">
         <v>898</v>
-      </c>
-      <c r="E197" t="s">
-        <v>899</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>507</v>
       </c>
@@ -9005,10 +9005,10 @@
         <v>508</v>
       </c>
       <c r="D198" t="s">
+        <v>899</v>
+      </c>
+      <c r="E198" t="s">
         <v>900</v>
-      </c>
-      <c r="E198" t="s">
-        <v>901</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>509</v>
       </c>
@@ -9034,10 +9034,10 @@
         <v>510</v>
       </c>
       <c r="D199" t="s">
+        <v>901</v>
+      </c>
+      <c r="E199" t="s">
         <v>902</v>
-      </c>
-      <c r="E199" t="s">
-        <v>903</v>
       </c>
       <c r="F199" t="s">
         <v>15</v>
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -9063,10 +9063,10 @@
         <v>512</v>
       </c>
       <c r="D200" t="s">
+        <v>903</v>
+      </c>
+      <c r="E200" t="s">
         <v>904</v>
-      </c>
-      <c r="E200" t="s">
-        <v>905</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -9081,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>513</v>
       </c>
@@ -9092,10 +9092,10 @@
         <v>514</v>
       </c>
       <c r="D201" t="s">
+        <v>905</v>
+      </c>
+      <c r="E201" t="s">
         <v>906</v>
-      </c>
-      <c r="E201" t="s">
-        <v>907</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>515</v>
       </c>
@@ -9121,10 +9121,10 @@
         <v>516</v>
       </c>
       <c r="D202" t="s">
+        <v>907</v>
+      </c>
+      <c r="E202" t="s">
         <v>908</v>
-      </c>
-      <c r="E202" t="s">
-        <v>909</v>
       </c>
       <c r="F202" t="s">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>517</v>
       </c>
@@ -9150,10 +9150,10 @@
         <v>518</v>
       </c>
       <c r="D203" t="s">
+        <v>909</v>
+      </c>
+      <c r="E203" t="s">
         <v>910</v>
-      </c>
-      <c r="E203" t="s">
-        <v>911</v>
       </c>
       <c r="F203" t="s">
         <v>15</v>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>519</v>
       </c>
@@ -9179,10 +9179,10 @@
         <v>520</v>
       </c>
       <c r="D204" t="s">
+        <v>911</v>
+      </c>
+      <c r="E204" t="s">
         <v>912</v>
-      </c>
-      <c r="E204" t="s">
-        <v>913</v>
       </c>
       <c r="F204" t="s">
         <v>15</v>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>521</v>
       </c>
@@ -9208,10 +9208,10 @@
         <v>522</v>
       </c>
       <c r="D205" t="s">
+        <v>913</v>
+      </c>
+      <c r="E205" t="s">
         <v>914</v>
-      </c>
-      <c r="E205" t="s">
-        <v>915</v>
       </c>
       <c r="F205" t="s">
         <v>15</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>523</v>
       </c>
@@ -9237,10 +9237,10 @@
         <v>524</v>
       </c>
       <c r="D206" t="s">
+        <v>915</v>
+      </c>
+      <c r="E206" t="s">
         <v>916</v>
-      </c>
-      <c r="E206" t="s">
-        <v>917</v>
       </c>
       <c r="F206" t="s">
         <v>15</v>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>525</v>
       </c>
@@ -9266,10 +9266,10 @@
         <v>526</v>
       </c>
       <c r="D207" t="s">
+        <v>917</v>
+      </c>
+      <c r="E207" t="s">
         <v>918</v>
-      </c>
-      <c r="E207" t="s">
-        <v>919</v>
       </c>
       <c r="F207" t="s">
         <v>15</v>
@@ -9284,7 +9284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>527</v>
       </c>
@@ -9295,16 +9295,16 @@
         <v>528</v>
       </c>
       <c r="D208" t="s">
+        <v>919</v>
+      </c>
+      <c r="E208" t="s">
         <v>920</v>
       </c>
-      <c r="E208" t="s">
-        <v>921</v>
-      </c>
       <c r="F208" t="s">
         <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H208" t="s">
         <v>461</v>
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>529</v>
       </c>
@@ -9324,16 +9324,16 @@
         <v>530</v>
       </c>
       <c r="D209" t="s">
+        <v>921</v>
+      </c>
+      <c r="E209" t="s">
         <v>922</v>
       </c>
-      <c r="E209" t="s">
-        <v>923</v>
-      </c>
       <c r="F209" t="s">
         <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H209" t="s">
         <v>141</v>
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>531</v>
       </c>
@@ -9353,10 +9353,10 @@
         <v>532</v>
       </c>
       <c r="D210" t="s">
+        <v>923</v>
+      </c>
+      <c r="E210" t="s">
         <v>924</v>
-      </c>
-      <c r="E210" t="s">
-        <v>925</v>
       </c>
       <c r="F210" t="s">
         <v>15</v>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>533</v>
       </c>
@@ -9382,16 +9382,16 @@
         <v>534</v>
       </c>
       <c r="D211" t="s">
+        <v>925</v>
+      </c>
+      <c r="E211" t="s">
         <v>926</v>
       </c>
-      <c r="E211" t="s">
-        <v>927</v>
-      </c>
       <c r="F211" t="s">
         <v>15</v>
       </c>
       <c r="G211" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H211" t="s">
         <v>238</v>
@@ -9400,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>535</v>
       </c>
@@ -9411,10 +9411,10 @@
         <v>536</v>
       </c>
       <c r="D212" t="s">
+        <v>927</v>
+      </c>
+      <c r="E212" t="s">
         <v>928</v>
-      </c>
-      <c r="E212" t="s">
-        <v>929</v>
       </c>
       <c r="F212" t="s">
         <v>15</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>537</v>
       </c>

--- a/data/processed/leiden_matching_table.xlsx
+++ b/data/processed/leiden_matching_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tklebel\Documents\Projects\ON-MERRIT\03-Analysis\apc_effect\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98394331-4805-48B1-AA11-56C584235D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405B138-DF96-4BD2-BBE9-776E46324D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{70655950-438C-47E9-B52C-924540BD7C84}"/>
   </bookViews>
@@ -3248,7 +3248,7 @@
   <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4484,7 +4484,7 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
